--- a/SEA_BE_results_updated.xlsx
+++ b/SEA_BE_results_updated.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F472"/>
+  <dimension ref="A1:F478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4814,20 +4814,20 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B203">
-        <v>1492</v>
+        <v>17</v>
       </c>
       <c r="C203">
-        <v>59115</v>
+        <v>29883</v>
       </c>
       <c r="D203">
-        <v>53633</v>
+        <v>20853</v>
       </c>
       <c r="E203">
-        <v>66723</v>
+        <v>40338</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -4836,20 +4836,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>M1'20'51</t>
+          <t>H13a2</t>
         </is>
       </c>
       <c r="B204">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C204">
-        <v>21829</v>
+        <v>1210</v>
       </c>
       <c r="D204">
-        <v>11855</v>
+        <v>6</v>
       </c>
       <c r="E204">
-        <v>30228</v>
+        <v>3673</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -4858,20 +4858,20 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>M10</t>
+          <t>H14</t>
         </is>
       </c>
       <c r="B205">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C205">
-        <v>29963</v>
+        <v>1455</v>
       </c>
       <c r="D205">
-        <v>21258</v>
+        <v>77</v>
       </c>
       <c r="E205">
-        <v>38789</v>
+        <v>4050</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -4880,64 +4880,64 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>M10a</t>
+          <t>H27e</t>
         </is>
       </c>
       <c r="B206">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C206">
-        <v>20996</v>
+        <v>2067</v>
       </c>
       <c r="D206">
-        <v>14306</v>
+        <v>76</v>
       </c>
       <c r="E206">
-        <v>29165</v>
+        <v>5798</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>M10a1</t>
+          <t>H2a2a1</t>
         </is>
       </c>
       <c r="B207">
         <v>5</v>
       </c>
       <c r="C207">
-        <v>18165</v>
+        <v>14354</v>
       </c>
       <c r="D207">
-        <v>11528</v>
+        <v>6195</v>
       </c>
       <c r="E207">
-        <v>25277</v>
+        <v>24310</v>
       </c>
       <c r="F207">
-        <v>0.794</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>M12</t>
+          <t>H2a2a1d</t>
         </is>
       </c>
       <c r="B208">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="C208">
-        <v>43798</v>
+        <v>1098</v>
       </c>
       <c r="D208">
-        <v>37070</v>
+        <v>10</v>
       </c>
       <c r="E208">
-        <v>51657</v>
+        <v>3719</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -4946,64 +4946,64 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>M12a</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B209">
-        <v>43</v>
+        <v>1492</v>
       </c>
       <c r="C209">
-        <v>40443</v>
+        <v>59115</v>
       </c>
       <c r="D209">
-        <v>33433</v>
+        <v>53633</v>
       </c>
       <c r="E209">
-        <v>47706</v>
+        <v>66723</v>
       </c>
       <c r="F209">
-        <v>0.9379999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>M12a1</t>
+          <t>M1'20'51</t>
         </is>
       </c>
       <c r="B210">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C210">
-        <v>36085</v>
+        <v>21829</v>
       </c>
       <c r="D210">
-        <v>29017</v>
+        <v>11855</v>
       </c>
       <c r="E210">
-        <v>42946</v>
+        <v>30228</v>
       </c>
       <c r="F210">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>M12a1a</t>
+          <t>M10</t>
         </is>
       </c>
       <c r="B211">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C211">
-        <v>29486</v>
+        <v>29963</v>
       </c>
       <c r="D211">
-        <v>23419</v>
+        <v>21258</v>
       </c>
       <c r="E211">
-        <v>35946</v>
+        <v>38789</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -5012,64 +5012,64 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>M12a1a1</t>
+          <t>M10a</t>
         </is>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C212">
-        <v>26813</v>
+        <v>20996</v>
       </c>
       <c r="D212">
-        <v>20140</v>
+        <v>14306</v>
       </c>
       <c r="E212">
-        <v>33788</v>
+        <v>29165</v>
       </c>
       <c r="F212">
-        <v>0.503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>M12a1b</t>
+          <t>M10a1</t>
         </is>
       </c>
       <c r="B213">
         <v>5</v>
       </c>
       <c r="C213">
-        <v>23696</v>
+        <v>18165</v>
       </c>
       <c r="D213">
-        <v>16312</v>
+        <v>11528</v>
       </c>
       <c r="E213">
-        <v>31943</v>
+        <v>25277</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>M12a1b*</t>
+          <t>M12</t>
         </is>
       </c>
       <c r="B214">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C214">
-        <v>11459</v>
+        <v>43798</v>
       </c>
       <c r="D214">
-        <v>5705</v>
+        <v>37070</v>
       </c>
       <c r="E214">
-        <v>18332</v>
+        <v>51657</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -5078,108 +5078,108 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>M12a2</t>
+          <t>M12a</t>
         </is>
       </c>
       <c r="B215">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C215">
-        <v>19612</v>
+        <v>40443</v>
       </c>
       <c r="D215">
-        <v>11973</v>
+        <v>33433</v>
       </c>
       <c r="E215">
-        <v>28050</v>
+        <v>47706</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>M12b</t>
+          <t>M12a1</t>
         </is>
       </c>
       <c r="B216">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C216">
-        <v>32460</v>
+        <v>36085</v>
       </c>
       <c r="D216">
-        <v>25719</v>
+        <v>29017</v>
       </c>
       <c r="E216">
-        <v>39658</v>
+        <v>42946</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>M12b1</t>
+          <t>M12a1a</t>
         </is>
       </c>
       <c r="B217">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C217">
-        <v>26779</v>
+        <v>29486</v>
       </c>
       <c r="D217">
-        <v>19733</v>
+        <v>23419</v>
       </c>
       <c r="E217">
-        <v>33662</v>
+        <v>35946</v>
       </c>
       <c r="F217">
-        <v>0.989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>M12b1a</t>
+          <t>M12a1a1</t>
         </is>
       </c>
       <c r="B218">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C218">
-        <v>20104</v>
+        <v>26813</v>
       </c>
       <c r="D218">
-        <v>13449</v>
+        <v>20140</v>
       </c>
       <c r="E218">
-        <v>33662</v>
+        <v>33788</v>
       </c>
       <c r="F218">
-        <v>0.999</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>M12b1a2</t>
+          <t>M12a1b</t>
         </is>
       </c>
       <c r="B219">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C219">
-        <v>12805</v>
+        <v>23696</v>
       </c>
       <c r="D219">
-        <v>8167</v>
+        <v>16312</v>
       </c>
       <c r="E219">
-        <v>17992</v>
+        <v>31943</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -5188,20 +5188,20 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>M12b1a2a</t>
+          <t>M12a1b*</t>
         </is>
       </c>
       <c r="B220">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C220">
-        <v>6087</v>
+        <v>11459</v>
       </c>
       <c r="D220">
-        <v>3574</v>
+        <v>5705</v>
       </c>
       <c r="E220">
-        <v>8909</v>
+        <v>18332</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -5210,42 +5210,42 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>M12b1a2b</t>
+          <t>M12a2</t>
         </is>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C221">
-        <v>7405</v>
+        <v>19612</v>
       </c>
       <c r="D221">
-        <v>3948</v>
+        <v>11973</v>
       </c>
       <c r="E221">
-        <v>10791</v>
+        <v>28050</v>
       </c>
       <c r="F221">
-        <v>0.238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>M12b1b</t>
+          <t>M12b</t>
         </is>
       </c>
       <c r="B222">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C222">
-        <v>11144</v>
+        <v>32460</v>
       </c>
       <c r="D222">
-        <v>6090</v>
+        <v>25719</v>
       </c>
       <c r="E222">
-        <v>16982</v>
+        <v>39658</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -5254,86 +5254,86 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>M12b2a*</t>
+          <t>M12b1</t>
         </is>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C223">
-        <v>8043</v>
+        <v>26779</v>
       </c>
       <c r="D223">
-        <v>3464</v>
+        <v>19733</v>
       </c>
       <c r="E223">
-        <v>13960</v>
+        <v>33662</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>M13</t>
+          <t>M12b1a</t>
         </is>
       </c>
       <c r="B224">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C224">
-        <v>47653</v>
+        <v>20104</v>
       </c>
       <c r="D224">
-        <v>39960</v>
+        <v>13449</v>
       </c>
       <c r="E224">
-        <v>55619</v>
+        <v>33662</v>
       </c>
       <c r="F224">
-        <v>0.725</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>M13a2*</t>
+          <t>M12b1a2</t>
         </is>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C225">
-        <v>43441</v>
+        <v>12805</v>
       </c>
       <c r="D225">
-        <v>34835</v>
+        <v>8167</v>
       </c>
       <c r="E225">
-        <v>52083</v>
+        <v>17992</v>
       </c>
       <c r="F225">
-        <v>0.624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>M13b1</t>
+          <t>M12b1a2a</t>
         </is>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C226">
-        <v>22065</v>
+        <v>6087</v>
       </c>
       <c r="D226">
-        <v>14048</v>
+        <v>3574</v>
       </c>
       <c r="E226">
-        <v>31554</v>
+        <v>8909</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -5342,42 +5342,42 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>M13c</t>
+          <t>M12b1a2b</t>
         </is>
       </c>
       <c r="B227">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C227">
-        <v>30938</v>
+        <v>7405</v>
       </c>
       <c r="D227">
-        <v>22500</v>
+        <v>3948</v>
       </c>
       <c r="E227">
-        <v>39678</v>
+        <v>10791</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>M13c*</t>
+          <t>M12b1b</t>
         </is>
       </c>
       <c r="B228">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C228">
-        <v>6147</v>
+        <v>11144</v>
       </c>
       <c r="D228">
-        <v>2945</v>
+        <v>6090</v>
       </c>
       <c r="E228">
-        <v>10091</v>
+        <v>16982</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -5386,20 +5386,20 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>M17</t>
+          <t>M12b2a*</t>
         </is>
       </c>
       <c r="B229">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C229">
-        <v>51607</v>
+        <v>8043</v>
       </c>
       <c r="D229">
-        <v>45495</v>
+        <v>3464</v>
       </c>
       <c r="E229">
-        <v>57632</v>
+        <v>13960</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -5408,108 +5408,108 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>M17a</t>
+          <t>M13</t>
         </is>
       </c>
       <c r="B230">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C230">
-        <v>30491</v>
+        <v>47653</v>
       </c>
       <c r="D230">
-        <v>24509</v>
+        <v>39960</v>
       </c>
       <c r="E230">
-        <v>37005</v>
+        <v>55619</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>M17c</t>
+          <t>M13a2*</t>
         </is>
       </c>
       <c r="B231">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C231">
-        <v>45415</v>
+        <v>43441</v>
       </c>
       <c r="D231">
-        <v>37704</v>
+        <v>34835</v>
       </c>
       <c r="E231">
-        <v>52579</v>
+        <v>52083</v>
       </c>
       <c r="F231">
-        <v>0.9419999999999999</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>M17c1a</t>
+          <t>M13b1</t>
         </is>
       </c>
       <c r="B232">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C232">
-        <v>31723</v>
+        <v>22065</v>
       </c>
       <c r="D232">
-        <v>23649</v>
+        <v>14048</v>
       </c>
       <c r="E232">
-        <v>40361</v>
+        <v>31554</v>
       </c>
       <c r="F232">
-        <v>0.983</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>M17c1a1</t>
+          <t>M13c</t>
         </is>
       </c>
       <c r="B233">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C233">
-        <v>22761</v>
+        <v>30938</v>
       </c>
       <c r="D233">
-        <v>16570</v>
+        <v>22500</v>
       </c>
       <c r="E233">
-        <v>29147</v>
+        <v>39678</v>
       </c>
       <c r="F233">
-        <v>0.848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>M17c1a1*</t>
+          <t>M13c*</t>
         </is>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C234">
-        <v>3671</v>
+        <v>6147</v>
       </c>
       <c r="D234">
-        <v>210</v>
+        <v>2945</v>
       </c>
       <c r="E234">
-        <v>7143</v>
+        <v>10091</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -5518,196 +5518,196 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>M17c1a1a</t>
+          <t>M17</t>
         </is>
       </c>
       <c r="B235">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C235">
-        <v>15993</v>
+        <v>51607</v>
       </c>
       <c r="D235">
-        <v>10478</v>
+        <v>45495</v>
       </c>
       <c r="E235">
-        <v>21926</v>
+        <v>57632</v>
       </c>
       <c r="F235">
-        <v>0.988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M17a</t>
         </is>
       </c>
       <c r="B236">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C236">
-        <v>45419</v>
+        <v>30491</v>
       </c>
       <c r="D236">
-        <v>35164</v>
+        <v>24509</v>
       </c>
       <c r="E236">
-        <v>54789</v>
+        <v>37005</v>
       </c>
       <c r="F236">
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>M20</t>
+          <t>M17c</t>
         </is>
       </c>
       <c r="B237">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C237">
-        <v>15705</v>
+        <v>45415</v>
       </c>
       <c r="D237">
-        <v>11711</v>
+        <v>37704</v>
       </c>
       <c r="E237">
-        <v>21244</v>
+        <v>52579</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>M20*</t>
+          <t>M17c1a</t>
         </is>
       </c>
       <c r="B238">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C238">
-        <v>13183</v>
+        <v>31723</v>
       </c>
       <c r="D238">
-        <v>9575</v>
+        <v>23649</v>
       </c>
       <c r="E238">
-        <v>17300</v>
+        <v>40361</v>
       </c>
       <c r="F238">
-        <v>0.782</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>M21a</t>
+          <t>M17c1a1</t>
         </is>
       </c>
       <c r="B239">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C239">
-        <v>28601</v>
+        <v>22761</v>
       </c>
       <c r="D239">
-        <v>20399</v>
+        <v>16570</v>
       </c>
       <c r="E239">
-        <v>37257</v>
+        <v>29147</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>M21b</t>
+          <t>M17c1a1*</t>
         </is>
       </c>
       <c r="B240">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C240">
-        <v>51746</v>
+        <v>3671</v>
       </c>
       <c r="D240">
-        <v>45814</v>
+        <v>210</v>
       </c>
       <c r="E240">
-        <v>57722</v>
+        <v>7143</v>
       </c>
       <c r="F240">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>M21b1</t>
+          <t>M17c1a1a</t>
         </is>
       </c>
       <c r="B241">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C241">
-        <v>38973</v>
+        <v>15993</v>
       </c>
       <c r="D241">
-        <v>29626</v>
+        <v>10478</v>
       </c>
       <c r="E241">
-        <v>48245</v>
+        <v>21926</v>
       </c>
       <c r="F241">
-        <v>0.994</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>M21b2</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="B242">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C242">
-        <v>31340</v>
+        <v>45419</v>
       </c>
       <c r="D242">
-        <v>24108</v>
+        <v>35164</v>
       </c>
       <c r="E242">
-        <v>39108</v>
+        <v>54789</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>M22</t>
+          <t>M20</t>
         </is>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C243">
-        <v>42938</v>
+        <v>15705</v>
       </c>
       <c r="D243">
-        <v>32700</v>
+        <v>11711</v>
       </c>
       <c r="E243">
-        <v>52269</v>
+        <v>21244</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -5716,42 +5716,42 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>M22a</t>
+          <t>M20*</t>
         </is>
       </c>
       <c r="B244">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C244">
-        <v>29230</v>
+        <v>13183</v>
       </c>
       <c r="D244">
-        <v>19299</v>
+        <v>9575</v>
       </c>
       <c r="E244">
-        <v>39323</v>
+        <v>17300</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>M23</t>
+          <t>M21a</t>
         </is>
       </c>
       <c r="B245">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C245">
-        <v>23601</v>
+        <v>28601</v>
       </c>
       <c r="D245">
-        <v>13766</v>
+        <v>20399</v>
       </c>
       <c r="E245">
-        <v>35040</v>
+        <v>37257</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -5760,64 +5760,64 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>M24</t>
+          <t>M21b</t>
         </is>
       </c>
       <c r="B246">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C246">
-        <v>29173</v>
+        <v>51746</v>
       </c>
       <c r="D246">
-        <v>20031</v>
+        <v>45814</v>
       </c>
       <c r="E246">
-        <v>38005</v>
+        <v>57722</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>M24a</t>
+          <t>M21b1</t>
         </is>
       </c>
       <c r="B247">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C247">
-        <v>16709</v>
+        <v>38973</v>
       </c>
       <c r="D247">
-        <v>10796</v>
+        <v>29626</v>
       </c>
       <c r="E247">
-        <v>23790</v>
+        <v>48245</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>M24b</t>
+          <t>M21b2</t>
         </is>
       </c>
       <c r="B248">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C248">
-        <v>17904</v>
+        <v>31340</v>
       </c>
       <c r="D248">
-        <v>11900</v>
+        <v>24108</v>
       </c>
       <c r="E248">
-        <v>24840</v>
+        <v>39108</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -5826,20 +5826,20 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>M26</t>
+          <t>M22</t>
         </is>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C249">
-        <v>13110</v>
+        <v>42938</v>
       </c>
       <c r="D249">
-        <v>6610</v>
+        <v>32700</v>
       </c>
       <c r="E249">
-        <v>20150</v>
+        <v>52269</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -5848,42 +5848,42 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>M27</t>
+          <t>M22a</t>
         </is>
       </c>
       <c r="B250">
         <v>5</v>
       </c>
       <c r="C250">
-        <v>50951</v>
+        <v>29230</v>
       </c>
       <c r="D250">
-        <v>43568</v>
+        <v>19299</v>
       </c>
       <c r="E250">
-        <v>57246</v>
+        <v>39323</v>
       </c>
       <c r="F250">
-        <v>0.584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>M27b1</t>
+          <t>M23</t>
         </is>
       </c>
       <c r="B251">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C251">
-        <v>3052</v>
+        <v>23601</v>
       </c>
       <c r="D251">
-        <v>242</v>
+        <v>13766</v>
       </c>
       <c r="E251">
-        <v>6099</v>
+        <v>35040</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -5892,20 +5892,20 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>M28</t>
+          <t>M24</t>
         </is>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C252">
-        <v>26232</v>
+        <v>29173</v>
       </c>
       <c r="D252">
-        <v>16802</v>
+        <v>20031</v>
       </c>
       <c r="E252">
-        <v>36534</v>
+        <v>38005</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -5914,64 +5914,64 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>M24a</t>
         </is>
       </c>
       <c r="B253">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C253">
-        <v>29773</v>
+        <v>16709</v>
       </c>
       <c r="D253">
-        <v>19776</v>
+        <v>10796</v>
       </c>
       <c r="E253">
-        <v>40436</v>
+        <v>23790</v>
       </c>
       <c r="F253">
-        <v>0.961</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>M30</t>
+          <t>M24b</t>
         </is>
       </c>
       <c r="B254">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C254">
-        <v>16765</v>
+        <v>17904</v>
       </c>
       <c r="D254">
-        <v>7227</v>
+        <v>11900</v>
       </c>
       <c r="E254">
-        <v>27435</v>
+        <v>24840</v>
       </c>
       <c r="F254">
-        <v>0.261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>M31</t>
+          <t>M26</t>
         </is>
       </c>
       <c r="B255">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C255">
-        <v>5030</v>
+        <v>13110</v>
       </c>
       <c r="D255">
-        <v>1590</v>
+        <v>6610</v>
       </c>
       <c r="E255">
-        <v>10003</v>
+        <v>20150</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -5980,130 +5980,130 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>M32'56</t>
+          <t>M27</t>
         </is>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C256">
-        <v>1810</v>
+        <v>50951</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>43568</v>
       </c>
       <c r="E256">
-        <v>5013</v>
+        <v>57246</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>M33</t>
+          <t>M27b1</t>
         </is>
       </c>
       <c r="B257">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C257">
-        <v>43229</v>
+        <v>3052</v>
       </c>
       <c r="D257">
-        <v>31597</v>
+        <v>242</v>
       </c>
       <c r="E257">
-        <v>54871</v>
+        <v>6099</v>
       </c>
       <c r="F257">
-        <v>0.204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>M33a1</t>
+          <t>M28</t>
         </is>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C258">
-        <v>33926</v>
+        <v>26232</v>
       </c>
       <c r="D258">
-        <v>22351</v>
+        <v>16802</v>
       </c>
       <c r="E258">
-        <v>45984</v>
+        <v>36534</v>
       </c>
       <c r="F258">
-        <v>0.998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>M33a3a*</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="B259">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C259">
-        <v>9753</v>
+        <v>29773</v>
       </c>
       <c r="D259">
-        <v>4036</v>
+        <v>19776</v>
       </c>
       <c r="E259">
-        <v>16335</v>
+        <v>40436</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>M35b</t>
+          <t>M30</t>
         </is>
       </c>
       <c r="B260">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C260">
-        <v>19816</v>
+        <v>16765</v>
       </c>
       <c r="D260">
-        <v>9703</v>
+        <v>7227</v>
       </c>
       <c r="E260">
-        <v>32301</v>
+        <v>27435</v>
       </c>
       <c r="F260">
-        <v>0.999</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>M37e</t>
+          <t>M31</t>
         </is>
       </c>
       <c r="B261">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C261">
-        <v>27466</v>
+        <v>5030</v>
       </c>
       <c r="D261">
-        <v>18065</v>
+        <v>1590</v>
       </c>
       <c r="E261">
-        <v>38474</v>
+        <v>10003</v>
       </c>
       <c r="F261">
         <v>1</v>
@@ -6112,130 +6112,130 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>M3a1+204</t>
+          <t>M32'56</t>
         </is>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C262">
-        <v>25395</v>
+        <v>1810</v>
       </c>
       <c r="D262">
-        <v>16542</v>
+        <v>1</v>
       </c>
       <c r="E262">
-        <v>35451</v>
+        <v>5013</v>
       </c>
       <c r="F262">
-        <v>0.48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>M3c</t>
+          <t>M33</t>
         </is>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C263">
-        <v>21128</v>
+        <v>43229</v>
       </c>
       <c r="D263">
-        <v>12245</v>
+        <v>31597</v>
       </c>
       <c r="E263">
-        <v>31324</v>
+        <v>54871</v>
       </c>
       <c r="F263">
-        <v>0.839</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>M3c1a</t>
+          <t>M33a1</t>
         </is>
       </c>
       <c r="B264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C264">
-        <v>11322</v>
+        <v>33926</v>
       </c>
       <c r="D264">
-        <v>4431</v>
+        <v>22351</v>
       </c>
       <c r="E264">
-        <v>19737</v>
+        <v>45984</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>M3d1a*</t>
+          <t>M33a3a*</t>
         </is>
       </c>
       <c r="B265">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C265">
-        <v>22608</v>
+        <v>9753</v>
       </c>
       <c r="D265">
-        <v>13967</v>
+        <v>4036</v>
       </c>
       <c r="E265">
-        <v>33019</v>
+        <v>16335</v>
       </c>
       <c r="F265">
-        <v>0.964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>M45</t>
+          <t>M35b</t>
         </is>
       </c>
       <c r="B266">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C266">
-        <v>23584</v>
+        <v>19816</v>
       </c>
       <c r="D266">
-        <v>15796</v>
+        <v>9703</v>
       </c>
       <c r="E266">
-        <v>32767</v>
+        <v>32301</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>M45a</t>
+          <t>M37e</t>
         </is>
       </c>
       <c r="B267">
         <v>3</v>
       </c>
       <c r="C267">
-        <v>14083</v>
+        <v>27466</v>
       </c>
       <c r="D267">
-        <v>7733</v>
+        <v>18065</v>
       </c>
       <c r="E267">
-        <v>21891</v>
+        <v>38474</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -6244,130 +6244,130 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>M46</t>
+          <t>M3a1+204</t>
         </is>
       </c>
       <c r="B268">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C268">
-        <v>46140</v>
+        <v>25395</v>
       </c>
       <c r="D268">
-        <v>35798</v>
+        <v>16542</v>
       </c>
       <c r="E268">
-        <v>54739</v>
+        <v>35451</v>
       </c>
       <c r="F268">
-        <v>0.517</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>M46a</t>
+          <t>M3c</t>
         </is>
       </c>
       <c r="B269">
         <v>5</v>
       </c>
       <c r="C269">
-        <v>15303</v>
+        <v>21128</v>
       </c>
       <c r="D269">
-        <v>7892</v>
+        <v>12245</v>
       </c>
       <c r="E269">
-        <v>24172</v>
+        <v>31324</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>M49</t>
+          <t>M3c1a</t>
         </is>
       </c>
       <c r="B270">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C270">
-        <v>29793</v>
+        <v>11322</v>
       </c>
       <c r="D270">
-        <v>21300</v>
+        <v>4431</v>
       </c>
       <c r="E270">
-        <v>40098</v>
+        <v>19737</v>
       </c>
       <c r="F270">
-        <v>0.992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>M49e</t>
+          <t>M3d1a*</t>
         </is>
       </c>
       <c r="B271">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C271">
-        <v>16963</v>
+        <v>22608</v>
       </c>
       <c r="D271">
-        <v>10635</v>
+        <v>13967</v>
       </c>
       <c r="E271">
-        <v>24522</v>
+        <v>33019</v>
       </c>
       <c r="F271">
-        <v>1</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>M49e1</t>
+          <t>M45</t>
         </is>
       </c>
       <c r="B272">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C272">
-        <v>12560</v>
+        <v>23584</v>
       </c>
       <c r="D272">
-        <v>6763</v>
+        <v>15796</v>
       </c>
       <c r="E272">
-        <v>19303</v>
+        <v>32767</v>
       </c>
       <c r="F272">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>M4a</t>
+          <t>M45a</t>
         </is>
       </c>
       <c r="B273">
         <v>3</v>
       </c>
       <c r="C273">
-        <v>13901</v>
+        <v>14083</v>
       </c>
       <c r="D273">
-        <v>6484</v>
+        <v>7733</v>
       </c>
       <c r="E273">
-        <v>22652</v>
+        <v>21891</v>
       </c>
       <c r="F273">
         <v>1</v>
@@ -6376,86 +6376,86 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>M50</t>
+          <t>M46</t>
         </is>
       </c>
       <c r="B274">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C274">
-        <v>49854</v>
+        <v>46140</v>
       </c>
       <c r="D274">
-        <v>42889</v>
+        <v>35798</v>
       </c>
       <c r="E274">
-        <v>56016</v>
+        <v>54739</v>
       </c>
       <c r="F274">
-        <v>1</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>M50*</t>
+          <t>M46a</t>
         </is>
       </c>
       <c r="B275">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C275">
-        <v>42409</v>
+        <v>15303</v>
       </c>
       <c r="D275">
-        <v>32619</v>
+        <v>7892</v>
       </c>
       <c r="E275">
-        <v>51796</v>
+        <v>24172</v>
       </c>
       <c r="F275">
-        <v>0.802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>M50a</t>
+          <t>M49</t>
         </is>
       </c>
       <c r="B276">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C276">
-        <v>36965</v>
+        <v>29793</v>
       </c>
       <c r="D276">
-        <v>28041</v>
+        <v>21300</v>
       </c>
       <c r="E276">
-        <v>46164</v>
+        <v>40098</v>
       </c>
       <c r="F276">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>M50a1</t>
+          <t>M49e</t>
         </is>
       </c>
       <c r="B277">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C277">
-        <v>6322</v>
+        <v>16963</v>
       </c>
       <c r="D277">
-        <v>2901</v>
+        <v>10635</v>
       </c>
       <c r="E277">
-        <v>11464</v>
+        <v>24522</v>
       </c>
       <c r="F277">
         <v>1</v>
@@ -6464,64 +6464,64 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>M51</t>
+          <t>M49e1</t>
         </is>
       </c>
       <c r="B278">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C278">
-        <v>36982</v>
+        <v>12560</v>
       </c>
       <c r="D278">
-        <v>30237</v>
+        <v>6763</v>
       </c>
       <c r="E278">
-        <v>44180</v>
+        <v>19303</v>
       </c>
       <c r="F278">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>M51a</t>
+          <t>M4a</t>
         </is>
       </c>
       <c r="B279">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C279">
-        <v>32457</v>
+        <v>13901</v>
       </c>
       <c r="D279">
-        <v>26133</v>
+        <v>6484</v>
       </c>
       <c r="E279">
-        <v>39579</v>
+        <v>22652</v>
       </c>
       <c r="F279">
-        <v>0.995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>M51a1</t>
+          <t>M50</t>
         </is>
       </c>
       <c r="B280">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C280">
-        <v>24342</v>
+        <v>49854</v>
       </c>
       <c r="D280">
-        <v>17788</v>
+        <v>42889</v>
       </c>
       <c r="E280">
-        <v>31291</v>
+        <v>56016</v>
       </c>
       <c r="F280">
         <v>1</v>
@@ -6530,86 +6530,86 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>M51a1a</t>
+          <t>M50*</t>
         </is>
       </c>
       <c r="B281">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C281">
-        <v>17487</v>
+        <v>42409</v>
       </c>
       <c r="D281">
-        <v>11902</v>
+        <v>32619</v>
       </c>
       <c r="E281">
-        <v>24052</v>
+        <v>51796</v>
       </c>
       <c r="F281">
-        <v>1</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>M51a1a*1</t>
+          <t>M50a</t>
         </is>
       </c>
       <c r="B282">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C282">
-        <v>9334</v>
+        <v>36965</v>
       </c>
       <c r="D282">
-        <v>4538</v>
+        <v>28041</v>
       </c>
       <c r="E282">
-        <v>14925</v>
+        <v>46164</v>
       </c>
       <c r="F282">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>M51a1a*2</t>
+          <t>M50a1</t>
         </is>
       </c>
       <c r="B283">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C283">
-        <v>13889</v>
+        <v>6322</v>
       </c>
       <c r="D283">
-        <v>8183</v>
+        <v>2901</v>
       </c>
       <c r="E283">
-        <v>20273</v>
+        <v>11464</v>
       </c>
       <c r="F283">
-        <v>0.782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>M51a1b</t>
+          <t>M51</t>
         </is>
       </c>
       <c r="B284">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C284">
-        <v>5260</v>
+        <v>36982</v>
       </c>
       <c r="D284">
-        <v>2342</v>
+        <v>30237</v>
       </c>
       <c r="E284">
-        <v>9395</v>
+        <v>44180</v>
       </c>
       <c r="F284">
         <v>1</v>
@@ -6618,64 +6618,64 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>M51a2</t>
+          <t>M51a</t>
         </is>
       </c>
       <c r="B285">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C285">
-        <v>15521</v>
+        <v>32457</v>
       </c>
       <c r="D285">
-        <v>9571</v>
+        <v>26133</v>
       </c>
       <c r="E285">
-        <v>22417</v>
+        <v>39579</v>
       </c>
       <c r="F285">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>M51b</t>
+          <t>M51a1</t>
         </is>
       </c>
       <c r="B286">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C286">
-        <v>32455</v>
+        <v>24342</v>
       </c>
       <c r="D286">
-        <v>24638</v>
+        <v>17788</v>
       </c>
       <c r="E286">
-        <v>39733</v>
+        <v>31291</v>
       </c>
       <c r="F286">
-        <v>0.902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>M51b1</t>
+          <t>M51a1a</t>
         </is>
       </c>
       <c r="B287">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C287">
-        <v>23510</v>
+        <v>17487</v>
       </c>
       <c r="D287">
-        <v>15746</v>
+        <v>11902</v>
       </c>
       <c r="E287">
-        <v>31719</v>
+        <v>24052</v>
       </c>
       <c r="F287">
         <v>1</v>
@@ -6684,20 +6684,20 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>M51b1a</t>
+          <t>M51a1a*1</t>
         </is>
       </c>
       <c r="B288">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C288">
-        <v>9396</v>
+        <v>9334</v>
       </c>
       <c r="D288">
-        <v>4469</v>
+        <v>4538</v>
       </c>
       <c r="E288">
-        <v>16417</v>
+        <v>14925</v>
       </c>
       <c r="F288">
         <v>1</v>
@@ -6706,42 +6706,42 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>M52a1b1</t>
+          <t>M51a1a*2</t>
         </is>
       </c>
       <c r="B289">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C289">
-        <v>11150</v>
+        <v>13889</v>
       </c>
       <c r="D289">
-        <v>5793</v>
+        <v>8183</v>
       </c>
       <c r="E289">
-        <v>17456</v>
+        <v>20273</v>
       </c>
       <c r="F289">
-        <v>1</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>M55</t>
+          <t>M51a1b</t>
         </is>
       </c>
       <c r="B290">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C290">
-        <v>18997</v>
+        <v>5260</v>
       </c>
       <c r="D290">
-        <v>11670</v>
+        <v>2342</v>
       </c>
       <c r="E290">
-        <v>27151</v>
+        <v>9395</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -6750,86 +6750,86 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>M58</t>
+          <t>M51a2</t>
         </is>
       </c>
       <c r="B291">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C291">
-        <v>41025</v>
+        <v>15521</v>
       </c>
       <c r="D291">
-        <v>27512</v>
+        <v>9571</v>
       </c>
       <c r="E291">
-        <v>52627</v>
+        <v>22417</v>
       </c>
       <c r="F291">
-        <v>0.514</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>M59</t>
+          <t>M51b</t>
         </is>
       </c>
       <c r="B292">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C292">
-        <v>37511</v>
+        <v>32455</v>
       </c>
       <c r="D292">
-        <v>27898</v>
+        <v>24638</v>
       </c>
       <c r="E292">
-        <v>46753</v>
+        <v>39733</v>
       </c>
       <c r="F292">
-        <v>1</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>M60</t>
+          <t>M51b1</t>
         </is>
       </c>
       <c r="B293">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C293">
-        <v>21435</v>
+        <v>23510</v>
       </c>
       <c r="D293">
-        <v>11031</v>
+        <v>15746</v>
       </c>
       <c r="E293">
-        <v>36838</v>
+        <v>31719</v>
       </c>
       <c r="F293">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>M61</t>
+          <t>M51b1a</t>
         </is>
       </c>
       <c r="B294">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C294">
-        <v>22215</v>
+        <v>9396</v>
       </c>
       <c r="D294">
-        <v>14359</v>
+        <v>4469</v>
       </c>
       <c r="E294">
-        <v>31568</v>
+        <v>16417</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -6838,42 +6838,42 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>M61*</t>
+          <t>M52a1b1</t>
         </is>
       </c>
       <c r="B295">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C295">
-        <v>3091</v>
+        <v>11150</v>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>5793</v>
       </c>
       <c r="E295">
-        <v>6024</v>
+        <v>17456</v>
       </c>
       <c r="F295">
-        <v>0.599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>M68a</t>
+          <t>M55</t>
         </is>
       </c>
       <c r="B296">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C296">
-        <v>23837</v>
+        <v>18997</v>
       </c>
       <c r="D296">
-        <v>17390</v>
+        <v>11670</v>
       </c>
       <c r="E296">
-        <v>30813</v>
+        <v>27151</v>
       </c>
       <c r="F296">
         <v>1</v>
@@ -6882,42 +6882,42 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>M68a1</t>
+          <t>M58</t>
         </is>
       </c>
       <c r="B297">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C297">
-        <v>12416</v>
+        <v>41025</v>
       </c>
       <c r="D297">
-        <v>8331</v>
+        <v>27512</v>
       </c>
       <c r="E297">
-        <v>17429</v>
+        <v>52627</v>
       </c>
       <c r="F297">
-        <v>1</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>M68a1a</t>
+          <t>M59</t>
         </is>
       </c>
       <c r="B298">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C298">
-        <v>6787</v>
+        <v>37511</v>
       </c>
       <c r="D298">
-        <v>4067</v>
+        <v>27898</v>
       </c>
       <c r="E298">
-        <v>10161</v>
+        <v>46753</v>
       </c>
       <c r="F298">
         <v>1</v>
@@ -6926,42 +6926,42 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>M68a2</t>
+          <t>M60</t>
         </is>
       </c>
       <c r="B299">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C299">
-        <v>8117</v>
+        <v>21435</v>
       </c>
       <c r="D299">
-        <v>4412</v>
+        <v>11031</v>
       </c>
       <c r="E299">
-        <v>12832</v>
+        <v>36838</v>
       </c>
       <c r="F299">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>M68a2a</t>
+          <t>M61</t>
         </is>
       </c>
       <c r="B300">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C300">
-        <v>2898</v>
+        <v>22215</v>
       </c>
       <c r="D300">
-        <v>242</v>
+        <v>14359</v>
       </c>
       <c r="E300">
-        <v>5599</v>
+        <v>31568</v>
       </c>
       <c r="F300">
         <v>1</v>
@@ -6970,86 +6970,86 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>M69a</t>
+          <t>M61*</t>
         </is>
       </c>
       <c r="B301">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C301">
-        <v>14753</v>
+        <v>3091</v>
       </c>
       <c r="D301">
-        <v>7183</v>
+        <v>1</v>
       </c>
       <c r="E301">
-        <v>23509</v>
+        <v>6024</v>
       </c>
       <c r="F301">
-        <v>1</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>M7</t>
+          <t>M68a</t>
         </is>
       </c>
       <c r="B302">
-        <v>475</v>
+        <v>23</v>
       </c>
       <c r="C302">
-        <v>53927</v>
+        <v>23837</v>
       </c>
       <c r="D302">
-        <v>49085</v>
+        <v>17390</v>
       </c>
       <c r="E302">
-        <v>59231</v>
+        <v>30813</v>
       </c>
       <c r="F302">
-        <v>0.885</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>M70</t>
+          <t>M68a1</t>
         </is>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C303">
-        <v>45435</v>
+        <v>12416</v>
       </c>
       <c r="D303">
-        <v>33492</v>
+        <v>8331</v>
       </c>
       <c r="E303">
-        <v>56035</v>
+        <v>17429</v>
       </c>
       <c r="F303">
-        <v>0.281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>M71</t>
+          <t>M68a1a</t>
         </is>
       </c>
       <c r="B304">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C304">
-        <v>45033</v>
+        <v>6787</v>
       </c>
       <c r="D304">
-        <v>37045</v>
+        <v>4067</v>
       </c>
       <c r="E304">
-        <v>53036</v>
+        <v>10161</v>
       </c>
       <c r="F304">
         <v>1</v>
@@ -7058,20 +7058,20 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>M71+151</t>
+          <t>M68a2</t>
         </is>
       </c>
       <c r="B305">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C305">
-        <v>27603</v>
+        <v>8117</v>
       </c>
       <c r="D305">
-        <v>19953</v>
+        <v>4412</v>
       </c>
       <c r="E305">
-        <v>35237</v>
+        <v>12832</v>
       </c>
       <c r="F305">
         <v>1</v>
@@ -7080,42 +7080,42 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>M71a</t>
+          <t>M68a2a</t>
         </is>
       </c>
       <c r="B306">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C306">
-        <v>22909</v>
+        <v>2898</v>
       </c>
       <c r="D306">
-        <v>14391</v>
+        <v>242</v>
       </c>
       <c r="E306">
-        <v>33084</v>
+        <v>5599</v>
       </c>
       <c r="F306">
-        <v>0.9360000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>M71a1a</t>
+          <t>M69a</t>
         </is>
       </c>
       <c r="B307">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C307">
-        <v>8721</v>
+        <v>14753</v>
       </c>
       <c r="D307">
-        <v>4347</v>
+        <v>7183</v>
       </c>
       <c r="E307">
-        <v>14478</v>
+        <v>23509</v>
       </c>
       <c r="F307">
         <v>1</v>
@@ -7124,64 +7124,64 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>M71a2</t>
+          <t>M7</t>
         </is>
       </c>
       <c r="B308">
-        <v>10</v>
+        <v>475</v>
       </c>
       <c r="C308">
-        <v>28782</v>
+        <v>53927</v>
       </c>
       <c r="D308">
-        <v>19825</v>
+        <v>49085</v>
       </c>
       <c r="E308">
-        <v>38061</v>
+        <v>59231</v>
       </c>
       <c r="F308">
-        <v>1</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>M71b</t>
+          <t>M70</t>
         </is>
       </c>
       <c r="B309">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C309">
-        <v>6428</v>
+        <v>45435</v>
       </c>
       <c r="D309">
-        <v>2539</v>
+        <v>33492</v>
       </c>
       <c r="E309">
-        <v>12687</v>
+        <v>56035</v>
       </c>
       <c r="F309">
-        <v>1</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>M71c</t>
+          <t>M71</t>
         </is>
       </c>
       <c r="B310">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C310">
-        <v>9610</v>
+        <v>45033</v>
       </c>
       <c r="D310">
-        <v>5267</v>
+        <v>37045</v>
       </c>
       <c r="E310">
-        <v>15693</v>
+        <v>53036</v>
       </c>
       <c r="F310">
         <v>1</v>
@@ -7190,86 +7190,86 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>M71c*</t>
+          <t>M71+151</t>
         </is>
       </c>
       <c r="B311">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C311">
-        <v>3646</v>
+        <v>27603</v>
       </c>
       <c r="D311">
-        <v>971</v>
+        <v>19953</v>
       </c>
       <c r="E311">
-        <v>6778</v>
+        <v>35237</v>
       </c>
       <c r="F311">
-        <v>0.997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>M72</t>
+          <t>M71a</t>
         </is>
       </c>
       <c r="B312">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C312">
-        <v>19419</v>
+        <v>22909</v>
       </c>
       <c r="D312">
-        <v>11935</v>
+        <v>14391</v>
       </c>
       <c r="E312">
-        <v>28193</v>
+        <v>33084</v>
       </c>
       <c r="F312">
-        <v>1</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>M72a</t>
+          <t>M71a1a</t>
         </is>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C313">
-        <v>12535</v>
+        <v>8721</v>
       </c>
       <c r="D313">
-        <v>7840</v>
+        <v>4347</v>
       </c>
       <c r="E313">
-        <v>18628</v>
+        <v>14478</v>
       </c>
       <c r="F313">
-        <v>0.986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>M73</t>
+          <t>M71a2</t>
         </is>
       </c>
       <c r="B314">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C314">
-        <v>43241</v>
+        <v>28782</v>
       </c>
       <c r="D314">
-        <v>36189</v>
+        <v>19825</v>
       </c>
       <c r="E314">
-        <v>50342</v>
+        <v>38061</v>
       </c>
       <c r="F314">
         <v>1</v>
@@ -7278,20 +7278,20 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>M73*1</t>
+          <t>M71b</t>
         </is>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C315">
-        <v>36348</v>
+        <v>6428</v>
       </c>
       <c r="D315">
-        <v>28748</v>
+        <v>2539</v>
       </c>
       <c r="E315">
-        <v>43799</v>
+        <v>12687</v>
       </c>
       <c r="F315">
         <v>1</v>
@@ -7300,20 +7300,20 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>M73a</t>
+          <t>M71c</t>
         </is>
       </c>
       <c r="B316">
         <v>7</v>
       </c>
       <c r="C316">
-        <v>26861</v>
+        <v>9610</v>
       </c>
       <c r="D316">
-        <v>19286</v>
+        <v>5267</v>
       </c>
       <c r="E316">
-        <v>34527</v>
+        <v>15693</v>
       </c>
       <c r="F316">
         <v>1</v>
@@ -7322,42 +7322,42 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>M73a1</t>
+          <t>M71c*</t>
         </is>
       </c>
       <c r="B317">
         <v>4</v>
       </c>
       <c r="C317">
-        <v>14940</v>
+        <v>3646</v>
       </c>
       <c r="D317">
-        <v>8094</v>
+        <v>971</v>
       </c>
       <c r="E317">
-        <v>22348</v>
+        <v>6778</v>
       </c>
       <c r="F317">
-        <v>1</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>M73b</t>
+          <t>M72</t>
         </is>
       </c>
       <c r="B318">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C318">
-        <v>11767</v>
+        <v>19419</v>
       </c>
       <c r="D318">
-        <v>6627</v>
+        <v>11935</v>
       </c>
       <c r="E318">
-        <v>17611</v>
+        <v>28193</v>
       </c>
       <c r="F318">
         <v>1</v>
@@ -7366,42 +7366,42 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>M74</t>
+          <t>M72a</t>
         </is>
       </c>
       <c r="B319">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="C319">
-        <v>39877</v>
+        <v>12535</v>
       </c>
       <c r="D319">
-        <v>32060</v>
+        <v>7840</v>
       </c>
       <c r="E319">
-        <v>48065</v>
+        <v>18628</v>
       </c>
       <c r="F319">
-        <v>1</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>M74a</t>
+          <t>M73</t>
         </is>
       </c>
       <c r="B320">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C320">
-        <v>18694</v>
+        <v>43241</v>
       </c>
       <c r="D320">
-        <v>12511</v>
+        <v>36189</v>
       </c>
       <c r="E320">
-        <v>26176</v>
+        <v>50342</v>
       </c>
       <c r="F320">
         <v>1</v>
@@ -7410,42 +7410,42 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>M74a*</t>
+          <t>M73*1</t>
         </is>
       </c>
       <c r="B321">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C321">
-        <v>10901</v>
+        <v>36348</v>
       </c>
       <c r="D321">
-        <v>6423</v>
+        <v>28748</v>
       </c>
       <c r="E321">
-        <v>16602</v>
+        <v>43799</v>
       </c>
       <c r="F321">
-        <v>0.993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>M74b</t>
+          <t>M73a</t>
         </is>
       </c>
       <c r="B322">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C322">
-        <v>28567</v>
+        <v>26861</v>
       </c>
       <c r="D322">
-        <v>21821</v>
+        <v>19286</v>
       </c>
       <c r="E322">
-        <v>35698</v>
+        <v>34527</v>
       </c>
       <c r="F322">
         <v>1</v>
@@ -7454,20 +7454,20 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>M74b1</t>
+          <t>M73a1</t>
         </is>
       </c>
       <c r="B323">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C323">
-        <v>13756</v>
+        <v>14940</v>
       </c>
       <c r="D323">
-        <v>8728</v>
+        <v>8094</v>
       </c>
       <c r="E323">
-        <v>19975</v>
+        <v>22348</v>
       </c>
       <c r="F323">
         <v>1</v>
@@ -7476,20 +7476,20 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>M74b2</t>
+          <t>M73b</t>
         </is>
       </c>
       <c r="B324">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C324">
-        <v>13506</v>
+        <v>11767</v>
       </c>
       <c r="D324">
-        <v>8584</v>
+        <v>6627</v>
       </c>
       <c r="E324">
-        <v>19272</v>
+        <v>17611</v>
       </c>
       <c r="F324">
         <v>1</v>
@@ -7498,20 +7498,20 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>M76</t>
+          <t>M74</t>
         </is>
       </c>
       <c r="B325">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C325">
-        <v>36173</v>
+        <v>39877</v>
       </c>
       <c r="D325">
-        <v>28357</v>
+        <v>32060</v>
       </c>
       <c r="E325">
-        <v>44305</v>
+        <v>48065</v>
       </c>
       <c r="F325">
         <v>1</v>
@@ -7520,20 +7520,20 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>M76*</t>
+          <t>M74a</t>
         </is>
       </c>
       <c r="B326">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C326">
-        <v>18594</v>
+        <v>18694</v>
       </c>
       <c r="D326">
-        <v>12514</v>
+        <v>12511</v>
       </c>
       <c r="E326">
-        <v>26274</v>
+        <v>26176</v>
       </c>
       <c r="F326">
         <v>1</v>
@@ -7542,42 +7542,42 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>M76a</t>
+          <t>M74a*</t>
         </is>
       </c>
       <c r="B327">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C327">
-        <v>21776</v>
+        <v>10901</v>
       </c>
       <c r="D327">
-        <v>14529</v>
+        <v>6423</v>
       </c>
       <c r="E327">
-        <v>29987</v>
+        <v>16602</v>
       </c>
       <c r="F327">
-        <v>1</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>M79</t>
+          <t>M74b</t>
         </is>
       </c>
       <c r="B328">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C328">
-        <v>21205</v>
+        <v>28567</v>
       </c>
       <c r="D328">
-        <v>13019</v>
+        <v>21821</v>
       </c>
       <c r="E328">
-        <v>30173</v>
+        <v>35698</v>
       </c>
       <c r="F328">
         <v>1</v>
@@ -7586,42 +7586,42 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>M7b</t>
+          <t>M74b1</t>
         </is>
       </c>
       <c r="B329">
-        <v>291</v>
+        <v>17</v>
       </c>
       <c r="C329">
-        <v>49963</v>
+        <v>13756</v>
       </c>
       <c r="D329">
-        <v>43630</v>
+        <v>8728</v>
       </c>
       <c r="E329">
-        <v>55655</v>
+        <v>19975</v>
       </c>
       <c r="F329">
-        <v>0.708</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>M7b1</t>
+          <t>M74b2</t>
         </is>
       </c>
       <c r="B330">
-        <v>283</v>
+        <v>24</v>
       </c>
       <c r="C330">
-        <v>38806</v>
+        <v>13506</v>
       </c>
       <c r="D330">
-        <v>32363</v>
+        <v>8584</v>
       </c>
       <c r="E330">
-        <v>45838</v>
+        <v>19272</v>
       </c>
       <c r="F330">
         <v>1</v>
@@ -7630,20 +7630,20 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>M7b1a1</t>
+          <t>M76</t>
         </is>
       </c>
       <c r="B331">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="C331">
-        <v>31181</v>
+        <v>36173</v>
       </c>
       <c r="D331">
-        <v>26052</v>
+        <v>28357</v>
       </c>
       <c r="E331">
-        <v>36832</v>
+        <v>44305</v>
       </c>
       <c r="F331">
         <v>1</v>
@@ -7652,20 +7652,20 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>M7b1a1+16192</t>
+          <t>M76*</t>
         </is>
       </c>
       <c r="B332">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C332">
-        <v>12618</v>
+        <v>18594</v>
       </c>
       <c r="D332">
-        <v>8265</v>
+        <v>12514</v>
       </c>
       <c r="E332">
-        <v>17357</v>
+        <v>26274</v>
       </c>
       <c r="F332">
         <v>1</v>
@@ -7674,20 +7674,20 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>M7b1a1a</t>
+          <t>M76a</t>
         </is>
       </c>
       <c r="B333">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C333">
-        <v>25566</v>
+        <v>21776</v>
       </c>
       <c r="D333">
-        <v>20818</v>
+        <v>14529</v>
       </c>
       <c r="E333">
-        <v>30225</v>
+        <v>29987</v>
       </c>
       <c r="F333">
         <v>1</v>
@@ -7696,64 +7696,64 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>M7b1a1a1*</t>
+          <t>M79</t>
         </is>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C334">
-        <v>18721</v>
+        <v>21205</v>
       </c>
       <c r="D334">
-        <v>12252</v>
+        <v>13019</v>
       </c>
       <c r="E334">
-        <v>25525</v>
+        <v>30173</v>
       </c>
       <c r="F334">
-        <v>0.628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>M7b1a1a2</t>
+          <t>M7b</t>
         </is>
       </c>
       <c r="B335">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="C335">
-        <v>13478</v>
+        <v>49963</v>
       </c>
       <c r="D335">
-        <v>9253</v>
+        <v>43630</v>
       </c>
       <c r="E335">
-        <v>17755</v>
+        <v>55655</v>
       </c>
       <c r="F335">
-        <v>1</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>M7b1a1a3</t>
+          <t>M7b1</t>
         </is>
       </c>
       <c r="B336">
-        <v>56</v>
+        <v>283</v>
       </c>
       <c r="C336">
-        <v>18981</v>
+        <v>38806</v>
       </c>
       <c r="D336">
-        <v>14632</v>
+        <v>32363</v>
       </c>
       <c r="E336">
-        <v>23983</v>
+        <v>45838</v>
       </c>
       <c r="F336">
         <v>1</v>
@@ -7762,20 +7762,20 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>M7b1a1b</t>
+          <t>M7b1a1</t>
         </is>
       </c>
       <c r="B337">
-        <v>32</v>
+        <v>273</v>
       </c>
       <c r="C337">
-        <v>14998</v>
+        <v>31181</v>
       </c>
       <c r="D337">
-        <v>9374</v>
+        <v>26052</v>
       </c>
       <c r="E337">
-        <v>22190</v>
+        <v>36832</v>
       </c>
       <c r="F337">
         <v>1</v>
@@ -7784,86 +7784,86 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>M7b1a1d1</t>
+          <t>M7b1a1+16192</t>
         </is>
       </c>
       <c r="B338">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C338">
-        <v>9224</v>
+        <v>12618</v>
       </c>
       <c r="D338">
-        <v>5125</v>
+        <v>8265</v>
       </c>
       <c r="E338">
-        <v>13787</v>
+        <v>17357</v>
       </c>
       <c r="F338">
-        <v>0.972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>M7b1a1e</t>
+          <t>M7b1a1a</t>
         </is>
       </c>
       <c r="B339">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C339">
-        <v>12325</v>
+        <v>25566</v>
       </c>
       <c r="D339">
-        <v>8216</v>
+        <v>20818</v>
       </c>
       <c r="E339">
-        <v>17222</v>
+        <v>30225</v>
       </c>
       <c r="F339">
-        <v>0.895</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>M7b1a1e1</t>
+          <t>M7b1a1a1*</t>
         </is>
       </c>
       <c r="B340">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C340">
-        <v>9459</v>
+        <v>18721</v>
       </c>
       <c r="D340">
-        <v>5879</v>
+        <v>12252</v>
       </c>
       <c r="E340">
-        <v>13340</v>
+        <v>25525</v>
       </c>
       <c r="F340">
-        <v>0.991</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>M7b1a1f</t>
+          <t>M7b1a1a2</t>
         </is>
       </c>
       <c r="B341">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C341">
-        <v>18217</v>
+        <v>13478</v>
       </c>
       <c r="D341">
-        <v>13581</v>
+        <v>9253</v>
       </c>
       <c r="E341">
-        <v>22881</v>
+        <v>17755</v>
       </c>
       <c r="F341">
         <v>1</v>
@@ -7872,42 +7872,42 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>M7b1a1i</t>
+          <t>M7b1a1a3</t>
         </is>
       </c>
       <c r="B342">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C342">
-        <v>10384</v>
+        <v>18981</v>
       </c>
       <c r="D342">
-        <v>4923</v>
+        <v>14632</v>
       </c>
       <c r="E342">
-        <v>16871</v>
+        <v>23983</v>
       </c>
       <c r="F342">
-        <v>0.663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>M7b1a2a1</t>
+          <t>M7b1a1b</t>
         </is>
       </c>
       <c r="B343">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C343">
-        <v>8546</v>
+        <v>14998</v>
       </c>
       <c r="D343">
-        <v>4830</v>
+        <v>9374</v>
       </c>
       <c r="E343">
-        <v>12820</v>
+        <v>22190</v>
       </c>
       <c r="F343">
         <v>1</v>
@@ -7916,130 +7916,130 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>M7c</t>
+          <t>M7b1a1d1</t>
         </is>
       </c>
       <c r="B344">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="C344">
-        <v>39771</v>
+        <v>9224</v>
       </c>
       <c r="D344">
-        <v>32661</v>
+        <v>5125</v>
       </c>
       <c r="E344">
-        <v>47659</v>
+        <v>13787</v>
       </c>
       <c r="F344">
-        <v>1</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>M7c1</t>
+          <t>M7b1a1e</t>
         </is>
       </c>
       <c r="B345">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="C345">
-        <v>31244</v>
+        <v>12325</v>
       </c>
       <c r="D345">
-        <v>25117</v>
+        <v>8216</v>
       </c>
       <c r="E345">
-        <v>38284</v>
+        <v>17222</v>
       </c>
       <c r="F345">
-        <v>1</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>M7c1a</t>
+          <t>M7b1a1e1</t>
         </is>
       </c>
       <c r="B346">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C346">
-        <v>24982</v>
+        <v>9459</v>
       </c>
       <c r="D346">
-        <v>19427</v>
+        <v>5879</v>
       </c>
       <c r="E346">
-        <v>31385</v>
+        <v>13340</v>
       </c>
       <c r="F346">
-        <v>0.965</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>M7c1a3</t>
+          <t>M7b1a1f</t>
         </is>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C347">
-        <v>23323</v>
+        <v>18217</v>
       </c>
       <c r="D347">
-        <v>17629</v>
+        <v>13581</v>
       </c>
       <c r="E347">
-        <v>29710</v>
+        <v>22881</v>
       </c>
       <c r="F347">
-        <v>0.195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>M7c1b2b</t>
+          <t>M7b1a1i</t>
         </is>
       </c>
       <c r="B348">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C348">
-        <v>14428</v>
+        <v>10384</v>
       </c>
       <c r="D348">
-        <v>8931</v>
+        <v>4923</v>
       </c>
       <c r="E348">
-        <v>20103</v>
+        <v>16871</v>
       </c>
       <c r="F348">
-        <v>1</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>M7c1c</t>
+          <t>M7b1a2a1</t>
         </is>
       </c>
       <c r="B349">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="C349">
-        <v>22252</v>
+        <v>8546</v>
       </c>
       <c r="D349">
-        <v>16607</v>
+        <v>4830</v>
       </c>
       <c r="E349">
-        <v>28533</v>
+        <v>12820</v>
       </c>
       <c r="F349">
         <v>1</v>
@@ -8048,20 +8048,20 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>M7c1c2</t>
+          <t>M7c</t>
         </is>
       </c>
       <c r="B350">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="C350">
-        <v>13733</v>
+        <v>39771</v>
       </c>
       <c r="D350">
-        <v>9336</v>
+        <v>32661</v>
       </c>
       <c r="E350">
-        <v>19098</v>
+        <v>47659</v>
       </c>
       <c r="F350">
         <v>1</v>
@@ -8070,86 +8070,86 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>M7c1c3</t>
+          <t>M7c1</t>
         </is>
       </c>
       <c r="B351">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="C351">
-        <v>16415</v>
+        <v>31244</v>
       </c>
       <c r="D351">
-        <v>12380</v>
+        <v>25117</v>
       </c>
       <c r="E351">
-        <v>21511</v>
+        <v>38284</v>
       </c>
       <c r="F351">
-        <v>0.888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>M7c1c3a</t>
+          <t>M7c1a</t>
         </is>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C352">
-        <v>8371</v>
+        <v>24982</v>
       </c>
       <c r="D352">
-        <v>5198</v>
+        <v>19427</v>
       </c>
       <c r="E352">
-        <v>13609</v>
+        <v>31385</v>
       </c>
       <c r="F352">
-        <v>0.122</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>M7c1c3b</t>
+          <t>M7c1a3</t>
         </is>
       </c>
       <c r="B353">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C353">
-        <v>8631</v>
+        <v>23323</v>
       </c>
       <c r="D353">
-        <v>5004</v>
+        <v>17629</v>
       </c>
       <c r="E353">
-        <v>13538</v>
+        <v>29710</v>
       </c>
       <c r="F353">
-        <v>0.765</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>M7c1c3d</t>
+          <t>M7c1b2b</t>
         </is>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C354">
-        <v>3016</v>
+        <v>14428</v>
       </c>
       <c r="D354">
-        <v>268</v>
+        <v>8931</v>
       </c>
       <c r="E354">
-        <v>5810</v>
+        <v>20103</v>
       </c>
       <c r="F354">
         <v>1</v>
@@ -8158,240 +8158,240 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>M7c1c3f</t>
+          <t>M7c1c</t>
         </is>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="C355">
-        <v>4294</v>
+        <v>22252</v>
       </c>
       <c r="D355">
-        <v>2292</v>
+        <v>16607</v>
       </c>
       <c r="E355">
-        <v>9662</v>
+        <v>28533</v>
       </c>
       <c r="F355">
-        <v>0.242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>M7c1c3g</t>
+          <t>M7c1c2</t>
         </is>
       </c>
       <c r="B356">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C356">
-        <v>3104</v>
+        <v>13733</v>
       </c>
       <c r="D356">
-        <v>296</v>
+        <v>9336</v>
       </c>
       <c r="E356">
-        <v>6106</v>
+        <v>19098</v>
       </c>
       <c r="F356">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>M7c1c3h</t>
+          <t>M7c1c3</t>
         </is>
       </c>
       <c r="B357">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="C357">
-        <v>3108</v>
+        <v>16415</v>
       </c>
       <c r="D357">
-        <v>167</v>
+        <v>12380</v>
       </c>
       <c r="E357">
-        <v>5882</v>
+        <v>21511</v>
       </c>
       <c r="F357">
-        <v>0.965</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>M7c1c3i</t>
+          <t>M7c1c3a</t>
         </is>
       </c>
       <c r="B358">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C358">
-        <v>4923</v>
+        <v>8371</v>
       </c>
       <c r="D358">
-        <v>2028</v>
+        <v>5198</v>
       </c>
       <c r="E358">
-        <v>8959</v>
+        <v>13609</v>
       </c>
       <c r="F358">
-        <v>0.457</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>M7c2</t>
+          <t>M7c1c3b</t>
         </is>
       </c>
       <c r="B359">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C359">
-        <v>13097</v>
+        <v>8631</v>
       </c>
       <c r="D359">
-        <v>8233</v>
+        <v>5004</v>
       </c>
       <c r="E359">
-        <v>18792</v>
+        <v>13538</v>
       </c>
       <c r="F359">
-        <v>1</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>M7c2a</t>
+          <t>M7c1c3d</t>
         </is>
       </c>
       <c r="B360">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C360">
-        <v>6872</v>
+        <v>3016</v>
       </c>
       <c r="D360">
-        <v>3647</v>
+        <v>268</v>
       </c>
       <c r="E360">
-        <v>10730</v>
+        <v>5810</v>
       </c>
       <c r="F360">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>M7c2b</t>
+          <t>M7c1c3f</t>
         </is>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C361">
-        <v>4536</v>
+        <v>4294</v>
       </c>
       <c r="D361">
-        <v>1600</v>
+        <v>2292</v>
       </c>
       <c r="E361">
-        <v>8628</v>
+        <v>9662</v>
       </c>
       <c r="F361">
-        <v>0.964</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>M8a2a1</t>
+          <t>M7c1c3g</t>
         </is>
       </c>
       <c r="B362">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C362">
-        <v>17178</v>
+        <v>3104</v>
       </c>
       <c r="D362">
-        <v>11203</v>
+        <v>296</v>
       </c>
       <c r="E362">
-        <v>24327</v>
+        <v>6106</v>
       </c>
       <c r="F362">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>M8a2a1*</t>
+          <t>M7c1c3h</t>
         </is>
       </c>
       <c r="B363">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C363">
-        <v>10010</v>
+        <v>3108</v>
       </c>
       <c r="D363">
-        <v>6395</v>
+        <v>167</v>
       </c>
       <c r="E363">
-        <v>15156</v>
+        <v>5882</v>
       </c>
       <c r="F363">
-        <v>1</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>M9</t>
+          <t>M7c1c3i</t>
         </is>
       </c>
       <c r="B364">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C364">
-        <v>34146</v>
+        <v>4923</v>
       </c>
       <c r="D364">
-        <v>24552</v>
+        <v>2028</v>
       </c>
       <c r="E364">
-        <v>44802</v>
+        <v>8959</v>
       </c>
       <c r="F364">
-        <v>1</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>M91</t>
+          <t>M7c2</t>
         </is>
       </c>
       <c r="B365">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C365">
-        <v>40864</v>
+        <v>13097</v>
       </c>
       <c r="D365">
-        <v>31879</v>
+        <v>8233</v>
       </c>
       <c r="E365">
-        <v>49519</v>
+        <v>18792</v>
       </c>
       <c r="F365">
         <v>1</v>
@@ -8400,130 +8400,130 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>M91a</t>
+          <t>M7c2a</t>
         </is>
       </c>
       <c r="B366">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C366">
-        <v>21969</v>
+        <v>6872</v>
       </c>
       <c r="D366">
-        <v>15570</v>
+        <v>3647</v>
       </c>
       <c r="E366">
-        <v>29831</v>
+        <v>10730</v>
       </c>
       <c r="F366">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>M91b</t>
+          <t>M7c2b</t>
         </is>
       </c>
       <c r="B367">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C367">
-        <v>11958</v>
+        <v>4536</v>
       </c>
       <c r="D367">
-        <v>6286</v>
+        <v>1600</v>
       </c>
       <c r="E367">
-        <v>18985</v>
+        <v>8628</v>
       </c>
       <c r="F367">
-        <v>1</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>M91b*</t>
+          <t>M8a2a1</t>
         </is>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C368">
-        <v>4006</v>
+        <v>17178</v>
       </c>
       <c r="D368">
-        <v>1433</v>
+        <v>11203</v>
       </c>
       <c r="E368">
-        <v>6963</v>
+        <v>24327</v>
       </c>
       <c r="F368">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>M9a</t>
+          <t>M8a2a1*</t>
         </is>
       </c>
       <c r="B369">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C369">
-        <v>24399</v>
+        <v>10010</v>
       </c>
       <c r="D369">
-        <v>17484</v>
+        <v>6395</v>
       </c>
       <c r="E369">
-        <v>31900</v>
+        <v>15156</v>
       </c>
       <c r="F369">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>M9a1a1</t>
+          <t>M9</t>
         </is>
       </c>
       <c r="B370">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C370">
-        <v>18334</v>
+        <v>34146</v>
       </c>
       <c r="D370">
-        <v>13614</v>
+        <v>24552</v>
       </c>
       <c r="E370">
-        <v>26547</v>
+        <v>44802</v>
       </c>
       <c r="F370">
-        <v>0.763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>M9a1b</t>
+          <t>M91</t>
         </is>
       </c>
       <c r="B371">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C371">
-        <v>6562</v>
+        <v>40864</v>
       </c>
       <c r="D371">
-        <v>2895</v>
+        <v>31879</v>
       </c>
       <c r="E371">
-        <v>12029</v>
+        <v>49519</v>
       </c>
       <c r="F371">
         <v>1</v>
@@ -8532,130 +8532,130 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>M9a4</t>
+          <t>M91a</t>
         </is>
       </c>
       <c r="B372">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C372">
-        <v>15574</v>
+        <v>21969</v>
       </c>
       <c r="D372">
-        <v>9619</v>
+        <v>15570</v>
       </c>
       <c r="E372">
-        <v>22118</v>
+        <v>29831</v>
       </c>
       <c r="F372">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>M9a4a</t>
+          <t>M91b</t>
         </is>
       </c>
       <c r="B373">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C373">
-        <v>12021</v>
+        <v>11958</v>
       </c>
       <c r="D373">
-        <v>6952</v>
+        <v>6286</v>
       </c>
       <c r="E373">
-        <v>17465</v>
+        <v>18985</v>
       </c>
       <c r="F373">
-        <v>0.954</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>M9a4a1</t>
+          <t>M91b*</t>
         </is>
       </c>
       <c r="B374">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C374">
-        <v>7738</v>
+        <v>4006</v>
       </c>
       <c r="D374">
-        <v>4018</v>
+        <v>1433</v>
       </c>
       <c r="E374">
-        <v>12633</v>
+        <v>6963</v>
       </c>
       <c r="F374">
-        <v>0.997</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>M9a4a2</t>
+          <t>M9a</t>
         </is>
       </c>
       <c r="B375">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C375">
-        <v>3758</v>
+        <v>24399</v>
       </c>
       <c r="D375">
-        <v>864</v>
+        <v>17484</v>
       </c>
       <c r="E375">
-        <v>7130</v>
+        <v>31900</v>
       </c>
       <c r="F375">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>M9a5</t>
+          <t>M9a1a1</t>
         </is>
       </c>
       <c r="B376">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C376">
-        <v>9684</v>
+        <v>18334</v>
       </c>
       <c r="D376">
-        <v>4734</v>
+        <v>13614</v>
       </c>
       <c r="E376">
-        <v>15789</v>
+        <v>26547</v>
       </c>
       <c r="F376">
-        <v>1</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>M9b</t>
+          <t>M9a1b</t>
         </is>
       </c>
       <c r="B377">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C377">
-        <v>34146</v>
+        <v>6562</v>
       </c>
       <c r="D377">
-        <v>24552</v>
+        <v>2895</v>
       </c>
       <c r="E377">
-        <v>44802</v>
+        <v>12029</v>
       </c>
       <c r="F377">
         <v>1</v>
@@ -8664,86 +8664,86 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M9a4</t>
         </is>
       </c>
       <c r="B378">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="C378">
-        <v>64417</v>
+        <v>15574</v>
       </c>
       <c r="D378">
-        <v>51628</v>
+        <v>9619</v>
       </c>
       <c r="E378">
-        <v>77728</v>
+        <v>22118</v>
       </c>
       <c r="F378">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>N10</t>
+          <t>M9a4a</t>
         </is>
       </c>
       <c r="B379">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C379">
-        <v>56294</v>
+        <v>12021</v>
       </c>
       <c r="D379">
-        <v>43559</v>
+        <v>6952</v>
       </c>
       <c r="E379">
-        <v>70397</v>
+        <v>17465</v>
       </c>
       <c r="F379">
-        <v>0.418</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>N10a</t>
+          <t>M9a4a1</t>
         </is>
       </c>
       <c r="B380">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C380">
-        <v>13833</v>
+        <v>7738</v>
       </c>
       <c r="D380">
-        <v>9001</v>
+        <v>4018</v>
       </c>
       <c r="E380">
-        <v>19552</v>
+        <v>12633</v>
       </c>
       <c r="F380">
-        <v>1</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>N11b</t>
+          <t>M9a4a2</t>
         </is>
       </c>
       <c r="B381">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C381">
-        <v>5835</v>
+        <v>3758</v>
       </c>
       <c r="D381">
-        <v>1715</v>
+        <v>864</v>
       </c>
       <c r="E381">
-        <v>10748</v>
+        <v>7130</v>
       </c>
       <c r="F381">
         <v>1</v>
@@ -8752,20 +8752,20 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>N21</t>
+          <t>M9a5</t>
         </is>
       </c>
       <c r="B382">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C382">
-        <v>16749</v>
+        <v>9684</v>
       </c>
       <c r="D382">
-        <v>12031</v>
+        <v>4734</v>
       </c>
       <c r="E382">
-        <v>22363</v>
+        <v>15789</v>
       </c>
       <c r="F382">
         <v>1</v>
@@ -8774,42 +8774,42 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>N21+195</t>
+          <t>M9b</t>
         </is>
       </c>
       <c r="B383">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C383">
-        <v>9483</v>
+        <v>34146</v>
       </c>
       <c r="D383">
-        <v>5719</v>
+        <v>24552</v>
       </c>
       <c r="E383">
-        <v>13604</v>
+        <v>44802</v>
       </c>
       <c r="F383">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>N22</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B384">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="C384">
-        <v>22512</v>
+        <v>64417</v>
       </c>
       <c r="D384">
-        <v>14853</v>
+        <v>51628</v>
       </c>
       <c r="E384">
-        <v>31848</v>
+        <v>77728</v>
       </c>
       <c r="F384">
         <v>1</v>
@@ -8818,42 +8818,42 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>N7</t>
+          <t>N10</t>
         </is>
       </c>
       <c r="B385">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C385">
-        <v>31441</v>
+        <v>56294</v>
       </c>
       <c r="D385">
-        <v>22453</v>
+        <v>43559</v>
       </c>
       <c r="E385">
-        <v>41987</v>
+        <v>70397</v>
       </c>
       <c r="F385">
-        <v>1</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>N10a</t>
         </is>
       </c>
       <c r="B386">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C386">
-        <v>18741</v>
+        <v>13833</v>
       </c>
       <c r="D386">
-        <v>12560</v>
+        <v>9001</v>
       </c>
       <c r="E386">
-        <v>26587</v>
+        <v>19552</v>
       </c>
       <c r="F386">
         <v>1</v>
@@ -8862,130 +8862,130 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>N9a</t>
+          <t>N11b</t>
         </is>
       </c>
       <c r="B387">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="C387">
-        <v>33032</v>
+        <v>5835</v>
       </c>
       <c r="D387">
-        <v>23940</v>
+        <v>1715</v>
       </c>
       <c r="E387">
-        <v>42246</v>
+        <v>10748</v>
       </c>
       <c r="F387">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>N9a10</t>
+          <t>N21</t>
         </is>
       </c>
       <c r="B388">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C388">
-        <v>18085</v>
+        <v>16749</v>
       </c>
       <c r="D388">
-        <v>13735</v>
+        <v>12031</v>
       </c>
       <c r="E388">
-        <v>22964</v>
+        <v>22363</v>
       </c>
       <c r="F388">
-        <v>0.679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>N9a10+16311</t>
+          <t>N21+195</t>
         </is>
       </c>
       <c r="B389">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C389">
-        <v>6600</v>
+        <v>9483</v>
       </c>
       <c r="D389">
-        <v>3131</v>
+        <v>5719</v>
       </c>
       <c r="E389">
-        <v>10373</v>
+        <v>13604</v>
       </c>
       <c r="F389">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>N9a11</t>
+          <t>N22</t>
         </is>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C390">
-        <v>19999</v>
+        <v>22512</v>
       </c>
       <c r="D390">
-        <v>13408</v>
+        <v>14853</v>
       </c>
       <c r="E390">
-        <v>27154</v>
+        <v>31848</v>
       </c>
       <c r="F390">
-        <v>0.462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>N9a6</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="B391">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C391">
-        <v>19334</v>
+        <v>31441</v>
       </c>
       <c r="D391">
-        <v>14316</v>
+        <v>22453</v>
       </c>
       <c r="E391">
-        <v>24888</v>
+        <v>41987</v>
       </c>
       <c r="F391">
-        <v>0.47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>N9a6a</t>
+          <t>N8</t>
         </is>
       </c>
       <c r="B392">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C392">
-        <v>11113</v>
+        <v>18741</v>
       </c>
       <c r="D392">
-        <v>7776</v>
+        <v>12560</v>
       </c>
       <c r="E392">
-        <v>14629</v>
+        <v>26587</v>
       </c>
       <c r="F392">
         <v>1</v>
@@ -8994,64 +8994,64 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>N9a6a*1</t>
+          <t>N9a</t>
         </is>
       </c>
       <c r="B393">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="C393">
-        <v>843</v>
+        <v>33032</v>
       </c>
       <c r="D393">
-        <v>1</v>
+        <v>23940</v>
       </c>
       <c r="E393">
-        <v>3473</v>
+        <v>42246</v>
       </c>
       <c r="F393">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>N9a6b</t>
+          <t>N9a10</t>
         </is>
       </c>
       <c r="B394">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C394">
-        <v>895</v>
+        <v>18085</v>
       </c>
       <c r="D394">
-        <v>1</v>
+        <v>13735</v>
       </c>
       <c r="E394">
-        <v>3591</v>
+        <v>22964</v>
       </c>
       <c r="F394">
-        <v>1</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N9a10+16311</t>
         </is>
       </c>
       <c r="B395">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="C395">
-        <v>59581</v>
+        <v>6600</v>
       </c>
       <c r="D395">
-        <v>48307</v>
+        <v>3131</v>
       </c>
       <c r="E395">
-        <v>73217</v>
+        <v>10373</v>
       </c>
       <c r="F395">
         <v>1</v>
@@ -9060,64 +9060,64 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>N9a11</t>
         </is>
       </c>
       <c r="B396">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="C396">
-        <v>37372</v>
+        <v>19999</v>
       </c>
       <c r="D396">
-        <v>29853</v>
+        <v>13408</v>
       </c>
       <c r="E396">
-        <v>46763</v>
+        <v>27154</v>
       </c>
       <c r="F396">
-        <v>1</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>P1+152</t>
+          <t>N9a6</t>
         </is>
       </c>
       <c r="B397">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C397">
-        <v>20633</v>
+        <v>19334</v>
       </c>
       <c r="D397">
-        <v>12299</v>
+        <v>14316</v>
       </c>
       <c r="E397">
-        <v>29418</v>
+        <v>24888</v>
       </c>
       <c r="F397">
-        <v>0.991</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>N9a6a</t>
         </is>
       </c>
       <c r="B398">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C398">
-        <v>3073</v>
+        <v>11113</v>
       </c>
       <c r="D398">
-        <v>523</v>
+        <v>7776</v>
       </c>
       <c r="E398">
-        <v>7260</v>
+        <v>14629</v>
       </c>
       <c r="F398">
         <v>1</v>
@@ -9126,86 +9126,86 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>P1d</t>
+          <t>N9a6a*1</t>
         </is>
       </c>
       <c r="B399">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C399">
-        <v>27829</v>
+        <v>843</v>
       </c>
       <c r="D399">
-        <v>22446</v>
+        <v>1</v>
       </c>
       <c r="E399">
-        <v>34206</v>
+        <v>3473</v>
       </c>
       <c r="F399">
-        <v>0.555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>P1d1</t>
+          <t>N9a6b</t>
         </is>
       </c>
       <c r="B400">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C400">
-        <v>19493</v>
+        <v>895</v>
       </c>
       <c r="D400">
-        <v>15294</v>
+        <v>1</v>
       </c>
       <c r="E400">
-        <v>24003</v>
+        <v>3591</v>
       </c>
       <c r="F400">
-        <v>0.887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>P1d2</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="C401">
-        <v>16016</v>
+        <v>59581</v>
       </c>
       <c r="D401">
-        <v>10282</v>
+        <v>48307</v>
       </c>
       <c r="E401">
-        <v>22052</v>
+        <v>73217</v>
       </c>
       <c r="F401">
-        <v>0.992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B402">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C402">
-        <v>21487</v>
+        <v>37372</v>
       </c>
       <c r="D402">
-        <v>15685</v>
+        <v>29853</v>
       </c>
       <c r="E402">
-        <v>27740</v>
+        <v>46763</v>
       </c>
       <c r="F402">
         <v>1</v>
@@ -9214,42 +9214,42 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>P3b</t>
+          <t>P1+152</t>
         </is>
       </c>
       <c r="B403">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C403">
-        <v>33685</v>
+        <v>20633</v>
       </c>
       <c r="D403">
-        <v>23717</v>
+        <v>12299</v>
       </c>
       <c r="E403">
-        <v>44347</v>
+        <v>29418</v>
       </c>
       <c r="F403">
-        <v>1</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B404">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C404">
-        <v>27940</v>
+        <v>3073</v>
       </c>
       <c r="D404">
-        <v>20850</v>
+        <v>523</v>
       </c>
       <c r="E404">
-        <v>36328</v>
+        <v>7260</v>
       </c>
       <c r="F404">
         <v>1</v>
@@ -9258,108 +9258,108 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>P4a</t>
+          <t>P1d</t>
         </is>
       </c>
       <c r="B405">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C405">
-        <v>23106</v>
+        <v>27829</v>
       </c>
       <c r="D405">
-        <v>17643</v>
+        <v>22446</v>
       </c>
       <c r="E405">
-        <v>29176</v>
+        <v>34206</v>
       </c>
       <c r="F405">
-        <v>1</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>P4a1</t>
+          <t>P1d1</t>
         </is>
       </c>
       <c r="B406">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C406">
-        <v>18123</v>
+        <v>19493</v>
       </c>
       <c r="D406">
-        <v>13654</v>
+        <v>15294</v>
       </c>
       <c r="E406">
-        <v>22723</v>
+        <v>24003</v>
       </c>
       <c r="F406">
-        <v>1</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P1d2</t>
         </is>
       </c>
       <c r="B407">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C407">
-        <v>40089</v>
+        <v>16016</v>
       </c>
       <c r="D407">
-        <v>29986</v>
+        <v>10282</v>
       </c>
       <c r="E407">
-        <v>49983</v>
+        <v>22052</v>
       </c>
       <c r="F407">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>P9a</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B408">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C408">
-        <v>34311</v>
+        <v>21487</v>
       </c>
       <c r="D408">
-        <v>24318</v>
+        <v>15685</v>
       </c>
       <c r="E408">
-        <v>44668</v>
+        <v>27740</v>
       </c>
       <c r="F408">
-        <v>0.991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>P9a*</t>
+          <t>P3b</t>
         </is>
       </c>
       <c r="B409">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C409">
-        <v>1545</v>
+        <v>33685</v>
       </c>
       <c r="D409">
-        <v>151</v>
+        <v>23717</v>
       </c>
       <c r="E409">
-        <v>4104</v>
+        <v>44347</v>
       </c>
       <c r="F409">
         <v>1</v>
@@ -9368,20 +9368,20 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="B410">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="C410">
-        <v>38529</v>
+        <v>27940</v>
       </c>
       <c r="D410">
-        <v>30204</v>
+        <v>20850</v>
       </c>
       <c r="E410">
-        <v>48305</v>
+        <v>36328</v>
       </c>
       <c r="F410">
         <v>1</v>
@@ -9390,20 +9390,20 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>P4a</t>
         </is>
       </c>
       <c r="B411">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="C411">
-        <v>23482</v>
+        <v>23106</v>
       </c>
       <c r="D411">
-        <v>19015</v>
+        <v>17643</v>
       </c>
       <c r="E411">
-        <v>28935</v>
+        <v>29176</v>
       </c>
       <c r="F411">
         <v>1</v>
@@ -9412,86 +9412,86 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Q1a</t>
+          <t>P4a1</t>
         </is>
       </c>
       <c r="B412">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C412">
-        <v>18452</v>
+        <v>18123</v>
       </c>
       <c r="D412">
-        <v>15690</v>
+        <v>13654</v>
       </c>
       <c r="E412">
-        <v>21955</v>
+        <v>22723</v>
       </c>
       <c r="F412">
-        <v>0.753</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Q1a1</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="B413">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C413">
-        <v>15786</v>
+        <v>40089</v>
       </c>
       <c r="D413">
-        <v>13489</v>
+        <v>29986</v>
       </c>
       <c r="E413">
-        <v>18490</v>
+        <v>49983</v>
       </c>
       <c r="F413">
-        <v>0.699</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Q1f</t>
+          <t>P9a</t>
         </is>
       </c>
       <c r="B414">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C414">
-        <v>2260</v>
+        <v>34311</v>
       </c>
       <c r="D414">
-        <v>361</v>
+        <v>24318</v>
       </c>
       <c r="E414">
-        <v>5067</v>
+        <v>44668</v>
       </c>
       <c r="F414">
-        <v>1</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Q2a</t>
+          <t>P9a*</t>
         </is>
       </c>
       <c r="B415">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C415">
-        <v>16149</v>
+        <v>1545</v>
       </c>
       <c r="D415">
-        <v>11973</v>
+        <v>151</v>
       </c>
       <c r="E415">
-        <v>20109</v>
+        <v>4104</v>
       </c>
       <c r="F415">
         <v>1</v>
@@ -9500,108 +9500,108 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B416">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="C416">
-        <v>24389</v>
+        <v>38529</v>
       </c>
       <c r="D416">
-        <v>18607</v>
+        <v>30204</v>
       </c>
       <c r="E416">
-        <v>30922</v>
+        <v>48305</v>
       </c>
       <c r="F416">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Q3a</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B417">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="C417">
-        <v>21907</v>
+        <v>23482</v>
       </c>
       <c r="D417">
-        <v>16947</v>
+        <v>19015</v>
       </c>
       <c r="E417">
-        <v>27373</v>
+        <v>28935</v>
       </c>
       <c r="F417">
-        <v>0.759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Q3a+61</t>
+          <t>Q1a</t>
         </is>
       </c>
       <c r="B418">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C418">
-        <v>16184</v>
+        <v>18452</v>
       </c>
       <c r="D418">
-        <v>13006</v>
+        <v>15690</v>
       </c>
       <c r="E418">
-        <v>19647</v>
+        <v>21955</v>
       </c>
       <c r="F418">
-        <v>1</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Q3a1</t>
+          <t>Q1a1</t>
         </is>
       </c>
       <c r="B419">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C419">
-        <v>8143</v>
+        <v>15786</v>
       </c>
       <c r="D419">
-        <v>4118</v>
+        <v>13489</v>
       </c>
       <c r="E419">
-        <v>12830</v>
+        <v>18490</v>
       </c>
       <c r="F419">
-        <v>1</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q1f</t>
         </is>
       </c>
       <c r="B420">
-        <v>260</v>
+        <v>2</v>
       </c>
       <c r="C420">
-        <v>54819</v>
+        <v>2260</v>
       </c>
       <c r="D420">
-        <v>46734</v>
+        <v>361</v>
       </c>
       <c r="E420">
-        <v>65083</v>
+        <v>5067</v>
       </c>
       <c r="F420">
         <v>1</v>
@@ -9610,20 +9610,20 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>R+16189</t>
+          <t>Q2a</t>
         </is>
       </c>
       <c r="B421">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C421">
-        <v>16128</v>
+        <v>16149</v>
       </c>
       <c r="D421">
-        <v>7612</v>
+        <v>11973</v>
       </c>
       <c r="E421">
-        <v>25799</v>
+        <v>20109</v>
       </c>
       <c r="F421">
         <v>1</v>
@@ -9632,64 +9632,64 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>R11</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B422">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C422">
-        <v>36762</v>
+        <v>24389</v>
       </c>
       <c r="D422">
-        <v>29134</v>
+        <v>18607</v>
       </c>
       <c r="E422">
-        <v>45601</v>
+        <v>30922</v>
       </c>
       <c r="F422">
-        <v>0.549</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>R11'B6</t>
+          <t>Q3a</t>
         </is>
       </c>
       <c r="B423">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C423">
-        <v>23778</v>
+        <v>21907</v>
       </c>
       <c r="D423">
-        <v>16602</v>
+        <v>16947</v>
       </c>
       <c r="E423">
-        <v>31965</v>
+        <v>27373</v>
       </c>
       <c r="F423">
-        <v>1</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>R11b1</t>
+          <t>Q3a+61</t>
         </is>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C424">
-        <v>9622</v>
+        <v>16184</v>
       </c>
       <c r="D424">
-        <v>4600</v>
+        <v>13006</v>
       </c>
       <c r="E424">
-        <v>15556</v>
+        <v>19647</v>
       </c>
       <c r="F424">
         <v>1</v>
@@ -9698,20 +9698,20 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>R2+13500</t>
+          <t>Q3a1</t>
         </is>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C425">
-        <v>5734</v>
+        <v>8143</v>
       </c>
       <c r="D425">
-        <v>2061</v>
+        <v>4118</v>
       </c>
       <c r="E425">
-        <v>10726</v>
+        <v>12830</v>
       </c>
       <c r="F425">
         <v>1</v>
@@ -9720,20 +9720,20 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>R21</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B426">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="C426">
-        <v>6341</v>
+        <v>54819</v>
       </c>
       <c r="D426">
-        <v>3314</v>
+        <v>46734</v>
       </c>
       <c r="E426">
-        <v>10088</v>
+        <v>65083</v>
       </c>
       <c r="F426">
         <v>1</v>
@@ -9742,20 +9742,20 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>R21*</t>
+          <t>R+16189</t>
         </is>
       </c>
       <c r="B427">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C427">
-        <v>1897</v>
+        <v>16128</v>
       </c>
       <c r="D427">
-        <v>341</v>
+        <v>7612</v>
       </c>
       <c r="E427">
-        <v>4122</v>
+        <v>25799</v>
       </c>
       <c r="F427">
         <v>1</v>
@@ -9764,42 +9764,42 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>R22</t>
+          <t>R11</t>
         </is>
       </c>
       <c r="B428">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C428">
-        <v>41257</v>
+        <v>36762</v>
       </c>
       <c r="D428">
-        <v>32998</v>
+        <v>29134</v>
       </c>
       <c r="E428">
-        <v>50277</v>
+        <v>45601</v>
       </c>
       <c r="F428">
-        <v>1</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>R22*</t>
+          <t>R11'B6</t>
         </is>
       </c>
       <c r="B429">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C429">
-        <v>21978</v>
+        <v>23778</v>
       </c>
       <c r="D429">
-        <v>15783</v>
+        <v>16602</v>
       </c>
       <c r="E429">
-        <v>41849</v>
+        <v>31965</v>
       </c>
       <c r="F429">
         <v>1</v>
@@ -9808,20 +9808,20 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>R23</t>
+          <t>R11b1</t>
         </is>
       </c>
       <c r="B430">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C430">
-        <v>21535</v>
+        <v>9622</v>
       </c>
       <c r="D430">
-        <v>14162</v>
+        <v>4600</v>
       </c>
       <c r="E430">
-        <v>30109</v>
+        <v>15556</v>
       </c>
       <c r="F430">
         <v>1</v>
@@ -9830,20 +9830,20 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>R24</t>
+          <t>R2+13500</t>
         </is>
       </c>
       <c r="B431">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C431">
-        <v>21617</v>
+        <v>5734</v>
       </c>
       <c r="D431">
-        <v>13235</v>
+        <v>2061</v>
       </c>
       <c r="E431">
-        <v>29690</v>
+        <v>10726</v>
       </c>
       <c r="F431">
         <v>1</v>
@@ -9852,20 +9852,20 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>R24a</t>
+          <t>R21</t>
         </is>
       </c>
       <c r="B432">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C432">
-        <v>11389</v>
+        <v>6341</v>
       </c>
       <c r="D432">
-        <v>5813</v>
+        <v>3314</v>
       </c>
       <c r="E432">
-        <v>18279</v>
+        <v>10088</v>
       </c>
       <c r="F432">
         <v>1</v>
@@ -9874,42 +9874,42 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>R30</t>
+          <t>R21*</t>
         </is>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C433">
-        <v>39713</v>
+        <v>1897</v>
       </c>
       <c r="D433">
-        <v>29879</v>
+        <v>341</v>
       </c>
       <c r="E433">
-        <v>49378</v>
+        <v>4122</v>
       </c>
       <c r="F433">
-        <v>0.856</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>R5a1a</t>
+          <t>R22</t>
         </is>
       </c>
       <c r="B434">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C434">
-        <v>2127</v>
+        <v>41257</v>
       </c>
       <c r="D434">
-        <v>188</v>
+        <v>32998</v>
       </c>
       <c r="E434">
-        <v>5394</v>
+        <v>50277</v>
       </c>
       <c r="F434">
         <v>1</v>
@@ -9918,42 +9918,42 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R22*</t>
         </is>
       </c>
       <c r="B435">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C435">
-        <v>45356</v>
+        <v>21978</v>
       </c>
       <c r="D435">
-        <v>37869</v>
+        <v>15783</v>
       </c>
       <c r="E435">
-        <v>53656</v>
+        <v>41849</v>
       </c>
       <c r="F435">
-        <v>0.467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>R6a2</t>
+          <t>R23</t>
         </is>
       </c>
       <c r="B436">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C436">
-        <v>20896</v>
+        <v>21535</v>
       </c>
       <c r="D436">
-        <v>13174</v>
+        <v>14162</v>
       </c>
       <c r="E436">
-        <v>30010</v>
+        <v>30109</v>
       </c>
       <c r="F436">
         <v>1</v>
@@ -9962,42 +9962,42 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>R6b</t>
+          <t>R24</t>
         </is>
       </c>
       <c r="B437">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C437">
-        <v>43427</v>
+        <v>21617</v>
       </c>
       <c r="D437">
-        <v>35974</v>
+        <v>13235</v>
       </c>
       <c r="E437">
-        <v>51336</v>
+        <v>29690</v>
       </c>
       <c r="F437">
-        <v>0.466</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R24a</t>
         </is>
       </c>
       <c r="B438">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="C438">
-        <v>43590</v>
+        <v>11389</v>
       </c>
       <c r="D438">
-        <v>36646</v>
+        <v>5813</v>
       </c>
       <c r="E438">
-        <v>50425</v>
+        <v>18279</v>
       </c>
       <c r="F438">
         <v>1</v>
@@ -10006,42 +10006,42 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>R9b</t>
+          <t>R30</t>
         </is>
       </c>
       <c r="B439">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="C439">
-        <v>40335</v>
+        <v>39713</v>
       </c>
       <c r="D439">
-        <v>33267</v>
+        <v>29879</v>
       </c>
       <c r="E439">
-        <v>47434</v>
+        <v>49378</v>
       </c>
       <c r="F439">
-        <v>0.964</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>R9b1</t>
+          <t>R5a1a</t>
         </is>
       </c>
       <c r="B440">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C440">
-        <v>27923</v>
+        <v>2127</v>
       </c>
       <c r="D440">
-        <v>22137</v>
+        <v>188</v>
       </c>
       <c r="E440">
-        <v>34839</v>
+        <v>5394</v>
       </c>
       <c r="F440">
         <v>1</v>
@@ -10050,42 +10050,42 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>R9b1a</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="B441">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C441">
-        <v>23525</v>
+        <v>45356</v>
       </c>
       <c r="D441">
-        <v>18074</v>
+        <v>37869</v>
       </c>
       <c r="E441">
-        <v>29236</v>
+        <v>53656</v>
       </c>
       <c r="F441">
-        <v>0.695</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>R9b1a1a</t>
+          <t>R6a2</t>
         </is>
       </c>
       <c r="B442">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C442">
-        <v>14227</v>
+        <v>20896</v>
       </c>
       <c r="D442">
-        <v>10392</v>
+        <v>13174</v>
       </c>
       <c r="E442">
-        <v>19130</v>
+        <v>30010</v>
       </c>
       <c r="F442">
         <v>1</v>
@@ -10094,42 +10094,42 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>R9b1a2</t>
+          <t>R6b</t>
         </is>
       </c>
       <c r="B443">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C443">
-        <v>17854</v>
+        <v>43427</v>
       </c>
       <c r="D443">
-        <v>12937</v>
+        <v>35974</v>
       </c>
       <c r="E443">
-        <v>23832</v>
+        <v>51336</v>
       </c>
       <c r="F443">
-        <v>0.987</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>R9b1a2a</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="C444">
-        <v>5603</v>
+        <v>43590</v>
       </c>
       <c r="D444">
-        <v>1497</v>
+        <v>36646</v>
       </c>
       <c r="E444">
-        <v>10853</v>
+        <v>50425</v>
       </c>
       <c r="F444">
         <v>1</v>
@@ -10138,130 +10138,130 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>R9b1a2b</t>
+          <t>R9b</t>
         </is>
       </c>
       <c r="B445">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="C445">
-        <v>13278</v>
+        <v>40335</v>
       </c>
       <c r="D445">
-        <v>8730</v>
+        <v>33267</v>
       </c>
       <c r="E445">
-        <v>18730</v>
+        <v>47434</v>
       </c>
       <c r="F445">
-        <v>0.993</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>R9b1a2b*2</t>
+          <t>R9b1</t>
         </is>
       </c>
       <c r="B446">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C446">
-        <v>9706</v>
+        <v>27923</v>
       </c>
       <c r="D446">
-        <v>5678</v>
+        <v>22137</v>
       </c>
       <c r="E446">
-        <v>14132</v>
+        <v>34839</v>
       </c>
       <c r="F446">
-        <v>0.944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>R9b1a3</t>
+          <t>R9b1a</t>
         </is>
       </c>
       <c r="B447">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C447">
-        <v>13136</v>
+        <v>23525</v>
       </c>
       <c r="D447">
-        <v>9079</v>
+        <v>18074</v>
       </c>
       <c r="E447">
-        <v>17916</v>
+        <v>29236</v>
       </c>
       <c r="F447">
-        <v>1</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>R9b1a3*</t>
+          <t>R9b1a1a</t>
         </is>
       </c>
       <c r="B448">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C448">
-        <v>3913</v>
+        <v>14227</v>
       </c>
       <c r="D448">
-        <v>1756</v>
+        <v>10392</v>
       </c>
       <c r="E448">
-        <v>6735</v>
+        <v>19130</v>
       </c>
       <c r="F448">
-        <v>0.975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>R9b1b</t>
+          <t>R9b1a2</t>
         </is>
       </c>
       <c r="B449">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C449">
-        <v>10509</v>
+        <v>17854</v>
       </c>
       <c r="D449">
-        <v>6536</v>
+        <v>12937</v>
       </c>
       <c r="E449">
-        <v>16144</v>
+        <v>23832</v>
       </c>
       <c r="F449">
-        <v>1</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>R9b2</t>
+          <t>R9b1a2a</t>
         </is>
       </c>
       <c r="B450">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C450">
-        <v>11716</v>
+        <v>5603</v>
       </c>
       <c r="D450">
-        <v>8056</v>
+        <v>1497</v>
       </c>
       <c r="E450">
-        <v>16679</v>
+        <v>10853</v>
       </c>
       <c r="F450">
         <v>1</v>
@@ -10270,108 +10270,108 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>R9c1</t>
+          <t>R9b1a2b</t>
         </is>
       </c>
       <c r="B451">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C451">
-        <v>26564</v>
+        <v>13278</v>
       </c>
       <c r="D451">
-        <v>19151</v>
+        <v>8730</v>
       </c>
       <c r="E451">
-        <v>35000</v>
+        <v>18730</v>
       </c>
       <c r="F451">
-        <v>1</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>R9c1a</t>
+          <t>R9b1a2b*2</t>
         </is>
       </c>
       <c r="B452">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C452">
-        <v>9519</v>
+        <v>9706</v>
       </c>
       <c r="D452">
-        <v>6177</v>
+        <v>5678</v>
       </c>
       <c r="E452">
-        <v>13847</v>
+        <v>14132</v>
       </c>
       <c r="F452">
-        <v>1</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>R9c1a3</t>
+          <t>R9b1a3</t>
         </is>
       </c>
       <c r="B453">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C453">
-        <v>3626</v>
+        <v>13136</v>
       </c>
       <c r="D453">
-        <v>1054</v>
+        <v>9079</v>
       </c>
       <c r="E453">
-        <v>6987</v>
+        <v>17916</v>
       </c>
       <c r="F453">
-        <v>0.888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>R9b1a3*</t>
         </is>
       </c>
       <c r="B454">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C454">
-        <v>54397</v>
+        <v>3913</v>
       </c>
       <c r="D454">
-        <v>43182</v>
+        <v>1756</v>
       </c>
       <c r="E454">
-        <v>67233</v>
+        <v>6735</v>
       </c>
       <c r="F454">
-        <v>1</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>U1a1c1</t>
+          <t>R9b1b</t>
         </is>
       </c>
       <c r="B455">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C455">
-        <v>12680</v>
+        <v>10509</v>
       </c>
       <c r="D455">
-        <v>6045</v>
+        <v>6536</v>
       </c>
       <c r="E455">
-        <v>20735</v>
+        <v>16144</v>
       </c>
       <c r="F455">
         <v>1</v>
@@ -10380,64 +10380,64 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>U2</t>
+          <t>R9b2</t>
         </is>
       </c>
       <c r="B456">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C456">
-        <v>49010</v>
+        <v>11716</v>
       </c>
       <c r="D456">
-        <v>39169</v>
+        <v>8056</v>
       </c>
       <c r="E456">
-        <v>58787</v>
+        <v>16679</v>
       </c>
       <c r="F456">
-        <v>0.216</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>U2a</t>
+          <t>R9c1</t>
         </is>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C457">
-        <v>44896</v>
+        <v>26564</v>
       </c>
       <c r="D457">
-        <v>33968</v>
+        <v>19151</v>
       </c>
       <c r="E457">
-        <v>55974</v>
+        <v>35000</v>
       </c>
       <c r="F457">
-        <v>0.824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>U2b</t>
+          <t>R9c1a</t>
         </is>
       </c>
       <c r="B458">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C458">
-        <v>33561</v>
+        <v>9519</v>
       </c>
       <c r="D458">
-        <v>24833</v>
+        <v>6177</v>
       </c>
       <c r="E458">
-        <v>43854</v>
+        <v>13847</v>
       </c>
       <c r="F458">
         <v>1</v>
@@ -10446,42 +10446,42 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>U2b1</t>
+          <t>R9c1a3</t>
         </is>
       </c>
       <c r="B459">
         <v>2</v>
       </c>
       <c r="C459">
-        <v>25202</v>
+        <v>3626</v>
       </c>
       <c r="D459">
-        <v>16498</v>
+        <v>1054</v>
       </c>
       <c r="E459">
-        <v>34857</v>
+        <v>6987</v>
       </c>
       <c r="F459">
-        <v>1</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>U2c1</t>
+          <t>U</t>
         </is>
       </c>
       <c r="B460">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C460">
-        <v>22802</v>
+        <v>54397</v>
       </c>
       <c r="D460">
-        <v>13827</v>
+        <v>43182</v>
       </c>
       <c r="E460">
-        <v>33149</v>
+        <v>67233</v>
       </c>
       <c r="F460">
         <v>1</v>
@@ -10490,20 +10490,20 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>U1a1c1</t>
         </is>
       </c>
       <c r="B461">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C461">
-        <v>13834</v>
+        <v>12680</v>
       </c>
       <c r="D461">
-        <v>7799</v>
+        <v>6045</v>
       </c>
       <c r="E461">
-        <v>21234</v>
+        <v>20735</v>
       </c>
       <c r="F461">
         <v>1</v>
@@ -10512,64 +10512,64 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>W3a1b</t>
+          <t>U2</t>
         </is>
       </c>
       <c r="B462">
         <v>8</v>
       </c>
       <c r="C462">
-        <v>10505</v>
+        <v>49010</v>
       </c>
       <c r="D462">
-        <v>5491</v>
+        <v>39169</v>
       </c>
       <c r="E462">
-        <v>16085</v>
+        <v>58787</v>
       </c>
       <c r="F462">
-        <v>1</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>U2a</t>
         </is>
       </c>
       <c r="B463">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C463">
-        <v>28299</v>
+        <v>44896</v>
       </c>
       <c r="D463">
-        <v>17067</v>
+        <v>33968</v>
       </c>
       <c r="E463">
-        <v>41111</v>
+        <v>55974</v>
       </c>
       <c r="F463">
-        <v>1</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Y2a</t>
+          <t>U2b</t>
         </is>
       </c>
       <c r="B464">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C464">
-        <v>10109</v>
+        <v>33561</v>
       </c>
       <c r="D464">
-        <v>5948</v>
+        <v>24833</v>
       </c>
       <c r="E464">
-        <v>15393</v>
+        <v>43854</v>
       </c>
       <c r="F464">
         <v>1</v>
@@ -10578,64 +10578,64 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Y2a1</t>
+          <t>U2b1</t>
         </is>
       </c>
       <c r="B465">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C465">
-        <v>7260</v>
+        <v>25202</v>
       </c>
       <c r="D465">
-        <v>4490</v>
+        <v>16498</v>
       </c>
       <c r="E465">
-        <v>10756</v>
+        <v>34857</v>
       </c>
       <c r="F465">
-        <v>0.8139999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Y2a1a</t>
+          <t>U2c1</t>
         </is>
       </c>
       <c r="B466">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C466">
-        <v>3298</v>
+        <v>22802</v>
       </c>
       <c r="D466">
-        <v>1401</v>
+        <v>13827</v>
       </c>
       <c r="E466">
-        <v>5717</v>
+        <v>33149</v>
       </c>
       <c r="F466">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B467">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C467">
-        <v>27466</v>
+        <v>13834</v>
       </c>
       <c r="D467">
-        <v>18244</v>
+        <v>7799</v>
       </c>
       <c r="E467">
-        <v>38984</v>
+        <v>21234</v>
       </c>
       <c r="F467">
         <v>1</v>
@@ -10644,64 +10644,64 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Z3</t>
+          <t>W3a1b</t>
         </is>
       </c>
       <c r="B468">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C468">
-        <v>16642</v>
+        <v>10505</v>
       </c>
       <c r="D468">
-        <v>10103</v>
+        <v>5491</v>
       </c>
       <c r="E468">
-        <v>25232</v>
+        <v>16085</v>
       </c>
       <c r="F468">
-        <v>0.508</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Z3a</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B469">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C469">
-        <v>13367</v>
+        <v>28299</v>
       </c>
       <c r="D469">
-        <v>6725</v>
+        <v>17067</v>
       </c>
       <c r="E469">
-        <v>22445</v>
+        <v>41111</v>
       </c>
       <c r="F469">
-        <v>0.974</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Z3a1a</t>
+          <t>Y2a</t>
         </is>
       </c>
       <c r="B470">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C470">
-        <v>4974</v>
+        <v>10109</v>
       </c>
       <c r="D470">
-        <v>1678</v>
+        <v>5948</v>
       </c>
       <c r="E470">
-        <v>9765</v>
+        <v>15393</v>
       </c>
       <c r="F470">
         <v>1</v>
@@ -10710,44 +10710,176 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Z3c</t>
+          <t>Y2a1</t>
         </is>
       </c>
       <c r="B471">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C471">
-        <v>1435</v>
+        <v>7260</v>
       </c>
       <c r="D471">
-        <v>70</v>
+        <v>4490</v>
       </c>
       <c r="E471">
-        <v>4219</v>
+        <v>10756</v>
       </c>
       <c r="F471">
-        <v>1</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
+          <t>Y2a1a</t>
+        </is>
+      </c>
+      <c r="B472">
+        <v>7</v>
+      </c>
+      <c r="C472">
+        <v>3298</v>
+      </c>
+      <c r="D472">
+        <v>1401</v>
+      </c>
+      <c r="E472">
+        <v>5717</v>
+      </c>
+      <c r="F472">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B473">
+        <v>13</v>
+      </c>
+      <c r="C473">
+        <v>27466</v>
+      </c>
+      <c r="D473">
+        <v>18244</v>
+      </c>
+      <c r="E473">
+        <v>38984</v>
+      </c>
+      <c r="F473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Z3</t>
+        </is>
+      </c>
+      <c r="B474">
+        <v>10</v>
+      </c>
+      <c r="C474">
+        <v>16642</v>
+      </c>
+      <c r="D474">
+        <v>10103</v>
+      </c>
+      <c r="E474">
+        <v>25232</v>
+      </c>
+      <c r="F474">
+        <v>0.508</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Z3a</t>
+        </is>
+      </c>
+      <c r="B475">
+        <v>4</v>
+      </c>
+      <c r="C475">
+        <v>13367</v>
+      </c>
+      <c r="D475">
+        <v>6725</v>
+      </c>
+      <c r="E475">
+        <v>22445</v>
+      </c>
+      <c r="F475">
+        <v>0.974</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Z3a1a</t>
+        </is>
+      </c>
+      <c r="B476">
+        <v>2</v>
+      </c>
+      <c r="C476">
+        <v>4974</v>
+      </c>
+      <c r="D476">
+        <v>1678</v>
+      </c>
+      <c r="E476">
+        <v>9765</v>
+      </c>
+      <c r="F476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Z3c</t>
+        </is>
+      </c>
+      <c r="B477">
+        <v>3</v>
+      </c>
+      <c r="C477">
+        <v>1435</v>
+      </c>
+      <c r="D477">
+        <v>70</v>
+      </c>
+      <c r="E477">
+        <v>4219</v>
+      </c>
+      <c r="F477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
           <t>Z4</t>
         </is>
       </c>
-      <c r="B472">
+      <c r="B478">
         <v>2</v>
       </c>
-      <c r="C472">
+      <c r="C478">
         <v>8087</v>
       </c>
-      <c r="D472">
+      <c r="D478">
         <v>2916</v>
       </c>
-      <c r="E472">
+      <c r="E478">
         <v>15105</v>
       </c>
-      <c r="F472">
+      <c r="F478">
         <v>0.999</v>
       </c>
     </row>
